--- a/development/L1Menu_Collisions2022_v1_3_0/PrescaleTable/L1Menu_Collisions2022_v1_3_0-13.6TeV_2748b.xlsx
+++ b/development/L1Menu_Collisions2022_v1_3_0/PrescaleTable/L1Menu_Collisions2022_v1_3_0-13.6TeV_2748b.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6763DAC-55FF-D447-9AB8-9F18AD41ADFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20380" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="414">
   <si>
     <t>Index</t>
   </si>
@@ -1258,28 +1267,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -1354,32 +1350,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1388,24 +1370,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1531,7 +1574,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1540,7 +1583,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1549,7 +1592,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1623,7 +1666,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1631,7 +1674,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1650,7 +1693,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1680,7 +1723,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1706,7 +1749,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1732,7 +1775,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1758,7 +1801,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1784,7 +1827,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1810,7 +1853,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1836,7 +1879,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1862,7 +1905,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1888,7 +1931,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1901,9 +1944,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1918,7 +1967,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1926,7 +1975,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1945,7 +1994,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1971,7 +2020,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1997,7 +2046,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2023,7 +2072,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2049,7 +2098,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2075,7 +2124,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2101,7 +2150,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2127,7 +2176,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2153,7 +2202,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2179,7 +2228,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2192,9 +2241,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2208,7 +2263,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2227,7 +2282,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2257,7 +2312,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2283,7 +2338,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2309,7 +2364,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2335,7 +2390,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2361,7 +2416,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2387,7 +2442,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2413,7 +2468,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2439,7 +2494,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2465,7 +2520,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2478,70 +2533,78 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K404"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV404"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="48" style="1" customWidth="1"/>
-    <col min="3" max="11" width="8.85156" style="1" customWidth="1"/>
-    <col min="12" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="256" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3">
@@ -2572,11 +2635,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5">
@@ -2607,11 +2670,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5">
@@ -2642,11 +2705,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="5">
@@ -2677,11 +2740,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="5">
@@ -2712,11 +2775,11 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="6">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="5">
@@ -2747,11 +2810,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="6">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="5">
@@ -2782,11 +2845,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="6">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="5">
@@ -2817,11 +2880,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="5">
@@ -2852,11 +2915,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="6">
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="5">
@@ -2887,11 +2950,11 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" t="s" s="6">
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="5">
@@ -2922,11 +2985,11 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="6">
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="5">
@@ -2957,33 +3020,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" t="s" s="6">
+      <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
       </c>
       <c r="D14" s="5">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E14" s="5">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F14" s="5">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G14" s="5">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="H14" s="5">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="I14" s="5">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="J14" s="5">
         <v>200</v>
@@ -2992,11 +3055,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="6">
+      <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="5">
@@ -3027,11 +3090,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="6">
+      <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="5">
@@ -3062,11 +3125,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" t="s" s="6">
+      <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="5">
@@ -3097,11 +3160,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" t="s" s="6">
+      <c r="B18" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="5">
@@ -3132,11 +3195,11 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" t="s" s="6">
+      <c r="B19" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="5">
@@ -3167,11 +3230,11 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" t="s" s="6">
+      <c r="B20" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="5">
@@ -3202,11 +3265,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" t="s" s="6">
+      <c r="B21" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="5">
@@ -3237,11 +3300,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" t="s" s="6">
+      <c r="B22" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="5">
@@ -3272,11 +3335,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" t="s" s="6">
+      <c r="B23" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="5">
@@ -3307,11 +3370,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" t="s" s="6">
+      <c r="B24" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="5">
@@ -3342,11 +3405,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" t="s" s="6">
+      <c r="B25" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="5">
@@ -3377,11 +3440,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" t="s" s="6">
+      <c r="B26" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="5">
@@ -3412,11 +3475,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" t="s" s="6">
+      <c r="B27" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="5">
@@ -3447,11 +3510,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" t="s" s="6">
+      <c r="B28" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="5">
@@ -3482,11 +3545,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" t="s" s="6">
+      <c r="B29" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="5">
@@ -3517,11 +3580,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" t="s" s="6">
+      <c r="B30" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="5">
@@ -3552,11 +3615,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" t="s" s="6">
+      <c r="B31" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="5">
@@ -3587,11 +3650,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" t="s" s="6">
+      <c r="B32" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="5">
@@ -3622,11 +3685,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" t="s" s="6">
+      <c r="B33" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="5">
@@ -3657,11 +3720,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="B34" t="s" s="6">
+      <c r="B34" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="5">
@@ -3692,11 +3755,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" t="s" s="6">
+      <c r="B35" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="5">
@@ -3727,11 +3790,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="B36" t="s" s="6">
+      <c r="B36" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="5">
@@ -3762,11 +3825,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" t="s" s="6">
+      <c r="B37" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="5">
@@ -3797,11 +3860,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>36</v>
       </c>
-      <c r="B38" t="s" s="6">
+      <c r="B38" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="5">
@@ -3832,11 +3895,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" t="s" s="6">
+      <c r="B39" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="5">
@@ -3867,11 +3930,11 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>38</v>
       </c>
-      <c r="B40" t="s" s="6">
+      <c r="B40" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="5">
@@ -3902,11 +3965,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41" t="s" s="6">
+      <c r="B41" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="5">
@@ -3937,11 +4000,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>40</v>
       </c>
-      <c r="B42" t="s" s="6">
+      <c r="B42" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="5">
@@ -3972,11 +4035,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" t="s" s="6">
+      <c r="B43" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C43" s="5">
@@ -4007,11 +4070,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>42</v>
       </c>
-      <c r="B44" t="s" s="6">
+      <c r="B44" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="5">
@@ -4042,11 +4105,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" t="s" s="6">
+      <c r="B45" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="5">
@@ -4077,11 +4140,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B46" t="s" s="6">
+      <c r="B46" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="5">
@@ -4112,11 +4175,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" t="s" s="6">
+      <c r="B47" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C47" s="5">
@@ -4147,11 +4210,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>46</v>
       </c>
-      <c r="B48" t="s" s="6">
+      <c r="B48" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="5">
@@ -4182,11 +4245,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1">
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" t="s" s="6">
+      <c r="B49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="5">
@@ -4217,11 +4280,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1">
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>48</v>
       </c>
-      <c r="B50" t="s" s="6">
+      <c r="B50" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="5">
@@ -4252,11 +4315,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1">
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" t="s" s="6">
+      <c r="B51" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="5">
@@ -4287,11 +4350,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>50</v>
       </c>
-      <c r="B52" t="s" s="6">
+      <c r="B52" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="5">
@@ -4322,11 +4385,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1">
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" t="s" s="6">
+      <c r="B53" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="5">
@@ -4357,11 +4420,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1">
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>52</v>
       </c>
-      <c r="B54" t="s" s="6">
+      <c r="B54" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="5">
@@ -4392,11 +4455,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1">
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" t="s" s="6">
+      <c r="B55" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C55" s="5">
@@ -4427,11 +4490,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1">
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>54</v>
       </c>
-      <c r="B56" t="s" s="6">
+      <c r="B56" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="5">
@@ -4462,11 +4525,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1">
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" t="s" s="6">
+      <c r="B57" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C57" s="5">
@@ -4497,11 +4560,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1">
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>56</v>
       </c>
-      <c r="B58" t="s" s="6">
+      <c r="B58" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C58" s="5">
@@ -4532,11 +4595,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1">
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" t="s" s="6">
+      <c r="B59" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C59" s="5">
@@ -4567,11 +4630,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1">
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>58</v>
       </c>
-      <c r="B60" t="s" s="6">
+      <c r="B60" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C60" s="5">
@@ -4602,11 +4665,11 @@
         <v>450</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1">
+    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" t="s" s="6">
+      <c r="B61" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="5">
@@ -4637,11 +4700,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1">
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>60</v>
       </c>
-      <c r="B62" t="s" s="6">
+      <c r="B62" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="5">
@@ -4672,11 +4735,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1">
+    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>61</v>
       </c>
-      <c r="B63" t="s" s="6">
+      <c r="B63" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="5">
@@ -4707,11 +4770,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1">
+    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>62</v>
       </c>
-      <c r="B64" t="s" s="6">
+      <c r="B64" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C64" s="5">
@@ -4742,11 +4805,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1">
+    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>63</v>
       </c>
-      <c r="B65" t="s" s="6">
+      <c r="B65" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C65" s="5">
@@ -4777,11 +4840,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="15" customHeight="1">
+    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>64</v>
       </c>
-      <c r="B66" t="s" s="6">
+      <c r="B66" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C66" s="5">
@@ -4812,11 +4875,11 @@
         <v>700</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1">
+    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>65</v>
       </c>
-      <c r="B67" t="s" s="6">
+      <c r="B67" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C67" s="5">
@@ -4847,11 +4910,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1">
+    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>66</v>
       </c>
-      <c r="B68" t="s" s="6">
+      <c r="B68" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C68" s="5">
@@ -4882,11 +4945,11 @@
         <v>800</v>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1">
+    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>67</v>
       </c>
-      <c r="B69" t="s" s="6">
+      <c r="B69" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C69" s="5">
@@ -4917,11 +4980,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1">
+    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>68</v>
       </c>
-      <c r="B70" t="s" s="6">
+      <c r="B70" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="5">
@@ -4952,11 +5015,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1">
+    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>69</v>
       </c>
-      <c r="B71" t="s" s="6">
+      <c r="B71" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C71" s="5">
@@ -4987,11 +5050,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>70</v>
       </c>
-      <c r="B72" t="s" s="6">
+      <c r="B72" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C72" s="5">
@@ -5022,11 +5085,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" ht="15" customHeight="1">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>71</v>
       </c>
-      <c r="B73" t="s" s="6">
+      <c r="B73" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C73" s="5">
@@ -5057,11 +5120,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>72</v>
       </c>
-      <c r="B74" t="s" s="6">
+      <c r="B74" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C74" s="5">
@@ -5092,11 +5155,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>73</v>
       </c>
-      <c r="B75" t="s" s="6">
+      <c r="B75" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C75" s="5">
@@ -5127,11 +5190,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>74</v>
       </c>
-      <c r="B76" t="s" s="6">
+      <c r="B76" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C76" s="5">
@@ -5162,11 +5225,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>75</v>
       </c>
-      <c r="B77" t="s" s="6">
+      <c r="B77" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C77" s="5">
@@ -5197,11 +5260,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="15" customHeight="1">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>76</v>
       </c>
-      <c r="B78" t="s" s="6">
+      <c r="B78" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C78" s="5">
@@ -5232,11 +5295,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" ht="15" customHeight="1">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>77</v>
       </c>
-      <c r="B79" t="s" s="6">
+      <c r="B79" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C79" s="5">
@@ -5267,11 +5330,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" ht="15" customHeight="1">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>78</v>
       </c>
-      <c r="B80" t="s" s="6">
+      <c r="B80" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C80" s="5">
@@ -5302,11 +5365,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" ht="15" customHeight="1">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>79</v>
       </c>
-      <c r="B81" t="s" s="6">
+      <c r="B81" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C81" s="5">
@@ -5337,11 +5400,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" ht="15" customHeight="1">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>80</v>
       </c>
-      <c r="B82" t="s" s="6">
+      <c r="B82" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C82" s="5">
@@ -5372,11 +5435,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" ht="15" customHeight="1">
+    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>81</v>
       </c>
-      <c r="B83" t="s" s="6">
+      <c r="B83" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C83" s="5">
@@ -5407,11 +5470,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1">
+    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>82</v>
       </c>
-      <c r="B84" t="s" s="6">
+      <c r="B84" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C84" s="5">
@@ -5442,11 +5505,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>83</v>
       </c>
-      <c r="B85" t="s" s="6">
+      <c r="B85" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C85" s="5">
@@ -5477,11 +5540,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" ht="15" customHeight="1">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>84</v>
       </c>
-      <c r="B86" t="s" s="6">
+      <c r="B86" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C86" s="5">
@@ -5512,11 +5575,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" ht="15" customHeight="1">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>85</v>
       </c>
-      <c r="B87" t="s" s="6">
+      <c r="B87" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C87" s="5">
@@ -5547,11 +5610,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" ht="15" customHeight="1">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>86</v>
       </c>
-      <c r="B88" t="s" s="6">
+      <c r="B88" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C88" s="5">
@@ -5582,11 +5645,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" ht="15" customHeight="1">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>87</v>
       </c>
-      <c r="B89" t="s" s="6">
+      <c r="B89" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C89" s="5">
@@ -5617,11 +5680,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" ht="15" customHeight="1">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>88</v>
       </c>
-      <c r="B90" t="s" s="6">
+      <c r="B90" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C90" s="5">
@@ -5652,11 +5715,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" ht="15" customHeight="1">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>89</v>
       </c>
-      <c r="B91" t="s" s="6">
+      <c r="B91" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C91" s="5">
@@ -5687,11 +5750,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" ht="15" customHeight="1">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>90</v>
       </c>
-      <c r="B92" t="s" s="6">
+      <c r="B92" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C92" s="5">
@@ -5722,11 +5785,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" ht="15" customHeight="1">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>91</v>
       </c>
-      <c r="B93" t="s" s="6">
+      <c r="B93" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C93" s="5">
@@ -5757,11 +5820,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" ht="15" customHeight="1">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>92</v>
       </c>
-      <c r="B94" t="s" s="6">
+      <c r="B94" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C94" s="5">
@@ -5792,11 +5855,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" ht="15" customHeight="1">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>93</v>
       </c>
-      <c r="B95" t="s" s="6">
+      <c r="B95" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C95" s="5">
@@ -5827,11 +5890,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" ht="15" customHeight="1">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>96</v>
       </c>
-      <c r="B96" t="s" s="6">
+      <c r="B96" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C96" s="5">
@@ -5862,11 +5925,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" ht="15" customHeight="1">
+    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>97</v>
       </c>
-      <c r="B97" t="s" s="6">
+      <c r="B97" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C97" s="5">
@@ -5897,11 +5960,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" ht="15" customHeight="1">
+    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>98</v>
       </c>
-      <c r="B98" t="s" s="6">
+      <c r="B98" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C98" s="5">
@@ -5932,11 +5995,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" ht="15" customHeight="1">
+    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>99</v>
       </c>
-      <c r="B99" t="s" s="6">
+      <c r="B99" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C99" s="5">
@@ -5967,11 +6030,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" ht="15" customHeight="1">
+    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>100</v>
       </c>
-      <c r="B100" t="s" s="6">
+      <c r="B100" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C100" s="5">
@@ -6002,11 +6065,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" ht="15" customHeight="1">
+    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>101</v>
       </c>
-      <c r="B101" t="s" s="6">
+      <c r="B101" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C101" s="5">
@@ -6037,11 +6100,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" ht="15" customHeight="1">
+    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>102</v>
       </c>
-      <c r="B102" t="s" s="6">
+      <c r="B102" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C102" s="5">
@@ -6072,11 +6135,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" ht="15" customHeight="1">
+    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>104</v>
       </c>
-      <c r="B103" t="s" s="6">
+      <c r="B103" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C103" s="5">
@@ -6107,11 +6170,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" ht="15" customHeight="1">
+    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>105</v>
       </c>
-      <c r="B104" t="s" s="6">
+      <c r="B104" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C104" s="5">
@@ -6142,11 +6205,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" ht="15" customHeight="1">
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>106</v>
       </c>
-      <c r="B105" t="s" s="6">
+      <c r="B105" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C105" s="5">
@@ -6177,11 +6240,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" ht="15" customHeight="1">
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>107</v>
       </c>
-      <c r="B106" t="s" s="6">
+      <c r="B106" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C106" s="5">
@@ -6212,11 +6275,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" ht="15" customHeight="1">
+    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>109</v>
       </c>
-      <c r="B107" t="s" s="6">
+      <c r="B107" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C107" s="5">
@@ -6247,11 +6310,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" ht="15" customHeight="1">
+    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>110</v>
       </c>
-      <c r="B108" t="s" s="6">
+      <c r="B108" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C108" s="5">
@@ -6282,11 +6345,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" ht="15" customHeight="1">
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>112</v>
       </c>
-      <c r="B109" t="s" s="6">
+      <c r="B109" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C109" s="5">
@@ -6317,11 +6380,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" ht="15" customHeight="1">
+    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>113</v>
       </c>
-      <c r="B110" t="s" s="6">
+      <c r="B110" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C110" s="5">
@@ -6352,11 +6415,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" ht="15" customHeight="1">
+    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>119</v>
       </c>
-      <c r="B111" t="s" s="6">
+      <c r="B111" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C111" s="5">
@@ -6387,11 +6450,11 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="112" ht="15" customHeight="1">
+    <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>121</v>
       </c>
-      <c r="B112" t="s" s="6">
+      <c r="B112" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C112" s="5">
@@ -6422,11 +6485,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="113" ht="15" customHeight="1">
+    <row r="113" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>122</v>
       </c>
-      <c r="B113" t="s" s="6">
+      <c r="B113" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C113" s="5">
@@ -6457,11 +6520,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="114" ht="15" customHeight="1">
+    <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>123</v>
       </c>
-      <c r="B114" t="s" s="6">
+      <c r="B114" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C114" s="5">
@@ -6492,11 +6555,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="115" ht="15" customHeight="1">
+    <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>124</v>
       </c>
-      <c r="B115" t="s" s="6">
+      <c r="B115" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C115" s="5">
@@ -6527,11 +6590,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" ht="15" customHeight="1">
+    <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>125</v>
       </c>
-      <c r="B116" t="s" s="6">
+      <c r="B116" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C116" s="5">
@@ -6562,11 +6625,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" ht="15" customHeight="1">
+    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>126</v>
       </c>
-      <c r="B117" t="s" s="6">
+      <c r="B117" s="6" t="s">
         <v>126</v>
       </c>
       <c r="C117" s="5">
@@ -6597,11 +6660,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" ht="15" customHeight="1">
+    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>127</v>
       </c>
-      <c r="B118" t="s" s="6">
+      <c r="B118" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C118" s="5">
@@ -6632,11 +6695,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" ht="15" customHeight="1">
+    <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>128</v>
       </c>
-      <c r="B119" t="s" s="6">
+      <c r="B119" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C119" s="5">
@@ -6667,11 +6730,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" ht="15" customHeight="1">
+    <row r="120" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>129</v>
       </c>
-      <c r="B120" t="s" s="6">
+      <c r="B120" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C120" s="5">
@@ -6702,11 +6765,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" ht="15" customHeight="1">
+    <row r="121" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>131</v>
       </c>
-      <c r="B121" t="s" s="6">
+      <c r="B121" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C121" s="5">
@@ -6737,11 +6800,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" ht="15" customHeight="1">
+    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>132</v>
       </c>
-      <c r="B122" t="s" s="6">
+      <c r="B122" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C122" s="5">
@@ -6772,11 +6835,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" ht="15" customHeight="1">
+    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>134</v>
       </c>
-      <c r="B123" t="s" s="6">
+      <c r="B123" s="6" t="s">
         <v>132</v>
       </c>
       <c r="C123" s="5">
@@ -6807,11 +6870,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" ht="15" customHeight="1">
+    <row r="124" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>135</v>
       </c>
-      <c r="B124" t="s" s="6">
+      <c r="B124" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C124" s="5">
@@ -6842,11 +6905,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" ht="15" customHeight="1">
+    <row r="125" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>136</v>
       </c>
-      <c r="B125" t="s" s="6">
+      <c r="B125" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C125" s="5">
@@ -6877,11 +6940,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" ht="15" customHeight="1">
+    <row r="126" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>138</v>
       </c>
-      <c r="B126" t="s" s="6">
+      <c r="B126" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C126" s="5">
@@ -6912,11 +6975,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" ht="15" customHeight="1">
+    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>139</v>
       </c>
-      <c r="B127" t="s" s="6">
+      <c r="B127" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C127" s="5">
@@ -6947,11 +7010,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" ht="15" customHeight="1">
+    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>141</v>
       </c>
-      <c r="B128" t="s" s="6">
+      <c r="B128" s="6" t="s">
         <v>137</v>
       </c>
       <c r="C128" s="5">
@@ -6982,11 +7045,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" ht="15" customHeight="1">
+    <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>142</v>
       </c>
-      <c r="B129" t="s" s="6">
+      <c r="B129" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C129" s="5">
@@ -7017,11 +7080,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" ht="15" customHeight="1">
+    <row r="130" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>143</v>
       </c>
-      <c r="B130" t="s" s="6">
+      <c r="B130" s="6" t="s">
         <v>139</v>
       </c>
       <c r="C130" s="5">
@@ -7052,11 +7115,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" ht="15" customHeight="1">
+    <row r="131" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>144</v>
       </c>
-      <c r="B131" t="s" s="6">
+      <c r="B131" s="6" t="s">
         <v>140</v>
       </c>
       <c r="C131" s="5">
@@ -7087,11 +7150,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" ht="15" customHeight="1">
+    <row r="132" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>145</v>
       </c>
-      <c r="B132" t="s" s="6">
+      <c r="B132" s="6" t="s">
         <v>141</v>
       </c>
       <c r="C132" s="5">
@@ -7122,11 +7185,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" ht="15" customHeight="1">
+    <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>146</v>
       </c>
-      <c r="B133" t="s" s="6">
+      <c r="B133" s="6" t="s">
         <v>142</v>
       </c>
       <c r="C133" s="5">
@@ -7157,11 +7220,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" ht="15" customHeight="1">
+    <row r="134" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>147</v>
       </c>
-      <c r="B134" t="s" s="6">
+      <c r="B134" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C134" s="5">
@@ -7192,11 +7255,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" ht="15" customHeight="1">
+    <row r="135" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>148</v>
       </c>
-      <c r="B135" t="s" s="6">
+      <c r="B135" s="6" t="s">
         <v>144</v>
       </c>
       <c r="C135" s="5">
@@ -7227,11 +7290,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" ht="15" customHeight="1">
+    <row r="136" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>150</v>
       </c>
-      <c r="B136" t="s" s="6">
+      <c r="B136" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C136" s="5">
@@ -7262,11 +7325,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" ht="15" customHeight="1">
+    <row r="137" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>151</v>
       </c>
-      <c r="B137" t="s" s="6">
+      <c r="B137" s="6" t="s">
         <v>146</v>
       </c>
       <c r="C137" s="5">
@@ -7297,11 +7360,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" ht="15" customHeight="1">
+    <row r="138" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>152</v>
       </c>
-      <c r="B138" t="s" s="6">
+      <c r="B138" s="6" t="s">
         <v>147</v>
       </c>
       <c r="C138" s="5">
@@ -7332,11 +7395,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" ht="15" customHeight="1">
+    <row r="139" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>159</v>
       </c>
-      <c r="B139" t="s" s="6">
+      <c r="B139" s="6" t="s">
         <v>148</v>
       </c>
       <c r="C139" s="5">
@@ -7367,11 +7430,11 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="140" ht="15" customHeight="1">
+    <row r="140" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>160</v>
       </c>
-      <c r="B140" t="s" s="6">
+      <c r="B140" s="6" t="s">
         <v>149</v>
       </c>
       <c r="C140" s="5">
@@ -7402,11 +7465,11 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="141" ht="15" customHeight="1">
+    <row r="141" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>161</v>
       </c>
-      <c r="B141" t="s" s="6">
+      <c r="B141" s="6" t="s">
         <v>150</v>
       </c>
       <c r="C141" s="5">
@@ -7437,11 +7500,11 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="142" ht="15" customHeight="1">
+    <row r="142" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>162</v>
       </c>
-      <c r="B142" t="s" s="6">
+      <c r="B142" s="6" t="s">
         <v>151</v>
       </c>
       <c r="C142" s="5">
@@ -7472,11 +7535,11 @@
         <v>780</v>
       </c>
     </row>
-    <row r="143" ht="15" customHeight="1">
+    <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>163</v>
       </c>
-      <c r="B143" t="s" s="6">
+      <c r="B143" s="6" t="s">
         <v>152</v>
       </c>
       <c r="C143" s="5">
@@ -7507,11 +7570,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" ht="15" customHeight="1">
+    <row r="144" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>164</v>
       </c>
-      <c r="B144" t="s" s="6">
+      <c r="B144" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C144" s="5">
@@ -7542,11 +7605,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" ht="15" customHeight="1">
+    <row r="145" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>165</v>
       </c>
-      <c r="B145" t="s" s="6">
+      <c r="B145" s="6" t="s">
         <v>154</v>
       </c>
       <c r="C145" s="5">
@@ -7577,11 +7640,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" ht="15" customHeight="1">
+    <row r="146" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>166</v>
       </c>
-      <c r="B146" t="s" s="6">
+      <c r="B146" s="6" t="s">
         <v>155</v>
       </c>
       <c r="C146" s="5">
@@ -7612,11 +7675,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" ht="15" customHeight="1">
+    <row r="147" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>167</v>
       </c>
-      <c r="B147" t="s" s="6">
+      <c r="B147" s="6" t="s">
         <v>156</v>
       </c>
       <c r="C147" s="5">
@@ -7647,11 +7710,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" ht="15" customHeight="1">
+    <row r="148" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>168</v>
       </c>
-      <c r="B148" t="s" s="6">
+      <c r="B148" s="6" t="s">
         <v>157</v>
       </c>
       <c r="C148" s="5">
@@ -7682,11 +7745,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" ht="15" customHeight="1">
+    <row r="149" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>169</v>
       </c>
-      <c r="B149" t="s" s="6">
+      <c r="B149" s="6" t="s">
         <v>158</v>
       </c>
       <c r="C149" s="5">
@@ -7717,11 +7780,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" ht="15" customHeight="1">
+    <row r="150" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>170</v>
       </c>
-      <c r="B150" t="s" s="6">
+      <c r="B150" s="6" t="s">
         <v>159</v>
       </c>
       <c r="C150" s="5">
@@ -7752,11 +7815,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" ht="15" customHeight="1">
+    <row r="151" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>171</v>
       </c>
-      <c r="B151" t="s" s="6">
+      <c r="B151" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C151" s="5">
@@ -7787,11 +7850,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" ht="15" customHeight="1">
+    <row r="152" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>172</v>
       </c>
-      <c r="B152" t="s" s="6">
+      <c r="B152" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C152" s="5">
@@ -7822,11 +7885,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" ht="15" customHeight="1">
+    <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>173</v>
       </c>
-      <c r="B153" t="s" s="6">
+      <c r="B153" s="6" t="s">
         <v>162</v>
       </c>
       <c r="C153" s="5">
@@ -7857,11 +7920,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" ht="15" customHeight="1">
+    <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>174</v>
       </c>
-      <c r="B154" t="s" s="6">
+      <c r="B154" s="6" t="s">
         <v>163</v>
       </c>
       <c r="C154" s="5">
@@ -7892,11 +7955,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" ht="15" customHeight="1">
+    <row r="155" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>175</v>
       </c>
-      <c r="B155" t="s" s="6">
+      <c r="B155" s="6" t="s">
         <v>164</v>
       </c>
       <c r="C155" s="5">
@@ -7927,11 +7990,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" ht="15" customHeight="1">
+    <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>176</v>
       </c>
-      <c r="B156" t="s" s="6">
+      <c r="B156" s="6" t="s">
         <v>165</v>
       </c>
       <c r="C156" s="5">
@@ -7962,11 +8025,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" ht="15" customHeight="1">
+    <row r="157" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>177</v>
       </c>
-      <c r="B157" t="s" s="6">
+      <c r="B157" s="6" t="s">
         <v>166</v>
       </c>
       <c r="C157" s="5">
@@ -7997,11 +8060,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" ht="15" customHeight="1">
+    <row r="158" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
         <v>178</v>
       </c>
-      <c r="B158" t="s" s="6">
+      <c r="B158" s="6" t="s">
         <v>167</v>
       </c>
       <c r="C158" s="5">
@@ -8032,11 +8095,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" ht="15" customHeight="1">
+    <row r="159" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
         <v>179</v>
       </c>
-      <c r="B159" t="s" s="6">
+      <c r="B159" s="6" t="s">
         <v>168</v>
       </c>
       <c r="C159" s="5">
@@ -8067,11 +8130,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" ht="15" customHeight="1">
+    <row r="160" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
         <v>180</v>
       </c>
-      <c r="B160" t="s" s="6">
+      <c r="B160" s="6" t="s">
         <v>169</v>
       </c>
       <c r="C160" s="5">
@@ -8102,11 +8165,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" ht="15" customHeight="1">
+    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5">
         <v>181</v>
       </c>
-      <c r="B161" t="s" s="6">
+      <c r="B161" s="6" t="s">
         <v>170</v>
       </c>
       <c r="C161" s="5">
@@ -8137,11 +8200,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" ht="15" customHeight="1">
+    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5">
         <v>182</v>
       </c>
-      <c r="B162" t="s" s="6">
+      <c r="B162" s="6" t="s">
         <v>171</v>
       </c>
       <c r="C162" s="5">
@@ -8172,11 +8235,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" ht="15" customHeight="1">
+    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
         <v>183</v>
       </c>
-      <c r="B163" t="s" s="6">
+      <c r="B163" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C163" s="5">
@@ -8207,11 +8270,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" ht="15" customHeight="1">
+    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>184</v>
       </c>
-      <c r="B164" t="s" s="6">
+      <c r="B164" s="6" t="s">
         <v>173</v>
       </c>
       <c r="C164" s="5">
@@ -8242,11 +8305,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" ht="15" customHeight="1">
+    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
         <v>185</v>
       </c>
-      <c r="B165" t="s" s="6">
+      <c r="B165" s="6" t="s">
         <v>174</v>
       </c>
       <c r="C165" s="5">
@@ -8277,11 +8340,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" ht="15" customHeight="1">
+    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
         <v>186</v>
       </c>
-      <c r="B166" t="s" s="6">
+      <c r="B166" s="6" t="s">
         <v>175</v>
       </c>
       <c r="C166" s="5">
@@ -8312,11 +8375,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" ht="15" customHeight="1">
+    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
         <v>187</v>
       </c>
-      <c r="B167" t="s" s="6">
+      <c r="B167" s="6" t="s">
         <v>176</v>
       </c>
       <c r="C167" s="5">
@@ -8347,11 +8410,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" ht="15" customHeight="1">
+    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>188</v>
       </c>
-      <c r="B168" t="s" s="6">
+      <c r="B168" s="6" t="s">
         <v>177</v>
       </c>
       <c r="C168" s="5">
@@ -8382,11 +8445,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" ht="15" customHeight="1">
+    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>189</v>
       </c>
-      <c r="B169" t="s" s="6">
+      <c r="B169" s="6" t="s">
         <v>178</v>
       </c>
       <c r="C169" s="5">
@@ -8417,11 +8480,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" ht="15" customHeight="1">
+    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>190</v>
       </c>
-      <c r="B170" t="s" s="6">
+      <c r="B170" s="6" t="s">
         <v>179</v>
       </c>
       <c r="C170" s="5">
@@ -8452,11 +8515,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" ht="15" customHeight="1">
+    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>191</v>
       </c>
-      <c r="B171" t="s" s="6">
+      <c r="B171" s="6" t="s">
         <v>180</v>
       </c>
       <c r="C171" s="5">
@@ -8487,11 +8550,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" ht="15" customHeight="1">
+    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
         <v>192</v>
       </c>
-      <c r="B172" t="s" s="6">
+      <c r="B172" s="6" t="s">
         <v>181</v>
       </c>
       <c r="C172" s="5">
@@ -8522,11 +8585,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" ht="15" customHeight="1">
+    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
         <v>193</v>
       </c>
-      <c r="B173" t="s" s="6">
+      <c r="B173" s="6" t="s">
         <v>182</v>
       </c>
       <c r="C173" s="5">
@@ -8557,11 +8620,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" ht="15" customHeight="1">
+    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5">
         <v>194</v>
       </c>
-      <c r="B174" t="s" s="6">
+      <c r="B174" s="6" t="s">
         <v>183</v>
       </c>
       <c r="C174" s="5">
@@ -8592,11 +8655,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" ht="15" customHeight="1">
+    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5">
         <v>195</v>
       </c>
-      <c r="B175" t="s" s="6">
+      <c r="B175" s="6" t="s">
         <v>184</v>
       </c>
       <c r="C175" s="5">
@@ -8627,11 +8690,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" ht="15" customHeight="1">
+    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5">
         <v>196</v>
       </c>
-      <c r="B176" t="s" s="6">
+      <c r="B176" s="6" t="s">
         <v>185</v>
       </c>
       <c r="C176" s="5">
@@ -8662,11 +8725,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" ht="15" customHeight="1">
+    <row r="177" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
         <v>197</v>
       </c>
-      <c r="B177" t="s" s="6">
+      <c r="B177" s="6" t="s">
         <v>186</v>
       </c>
       <c r="C177" s="5">
@@ -8697,11 +8760,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" ht="15" customHeight="1">
+    <row r="178" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>200</v>
       </c>
-      <c r="B178" t="s" s="6">
+      <c r="B178" s="6" t="s">
         <v>187</v>
       </c>
       <c r="C178" s="5">
@@ -8732,11 +8795,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" ht="15" customHeight="1">
+    <row r="179" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5">
         <v>201</v>
       </c>
-      <c r="B179" t="s" s="6">
+      <c r="B179" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C179" s="5">
@@ -8767,11 +8830,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" ht="15" customHeight="1">
+    <row r="180" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5">
         <v>202</v>
       </c>
-      <c r="B180" t="s" s="6">
+      <c r="B180" s="6" t="s">
         <v>189</v>
       </c>
       <c r="C180" s="5">
@@ -8802,11 +8865,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" ht="15" customHeight="1">
+    <row r="181" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5">
         <v>203</v>
       </c>
-      <c r="B181" t="s" s="6">
+      <c r="B181" s="6" t="s">
         <v>190</v>
       </c>
       <c r="C181" s="5">
@@ -8837,11 +8900,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" ht="15" customHeight="1">
+    <row r="182" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5">
         <v>204</v>
       </c>
-      <c r="B182" t="s" s="6">
+      <c r="B182" s="6" t="s">
         <v>191</v>
       </c>
       <c r="C182" s="5">
@@ -8872,11 +8935,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" ht="15" customHeight="1">
+    <row r="183" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5">
         <v>205</v>
       </c>
-      <c r="B183" t="s" s="6">
+      <c r="B183" s="6" t="s">
         <v>192</v>
       </c>
       <c r="C183" s="5">
@@ -8907,11 +8970,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" ht="15" customHeight="1">
+    <row r="184" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5">
         <v>206</v>
       </c>
-      <c r="B184" t="s" s="6">
+      <c r="B184" s="6" t="s">
         <v>193</v>
       </c>
       <c r="C184" s="5">
@@ -8942,11 +9005,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" ht="15" customHeight="1">
+    <row r="185" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>207</v>
       </c>
-      <c r="B185" t="s" s="6">
+      <c r="B185" s="6" t="s">
         <v>194</v>
       </c>
       <c r="C185" s="5">
@@ -8977,11 +9040,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" ht="15" customHeight="1">
+    <row r="186" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>208</v>
       </c>
-      <c r="B186" t="s" s="6">
+      <c r="B186" s="6" t="s">
         <v>195</v>
       </c>
       <c r="C186" s="5">
@@ -9012,11 +9075,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" ht="15" customHeight="1">
+    <row r="187" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>209</v>
       </c>
-      <c r="B187" t="s" s="6">
+      <c r="B187" s="6" t="s">
         <v>196</v>
       </c>
       <c r="C187" s="5">
@@ -9047,11 +9110,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" ht="15" customHeight="1">
+    <row r="188" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>210</v>
       </c>
-      <c r="B188" t="s" s="6">
+      <c r="B188" s="6" t="s">
         <v>197</v>
       </c>
       <c r="C188" s="5">
@@ -9082,11 +9145,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" ht="15" customHeight="1">
+    <row r="189" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5">
         <v>211</v>
       </c>
-      <c r="B189" t="s" s="6">
+      <c r="B189" s="6" t="s">
         <v>198</v>
       </c>
       <c r="C189" s="5">
@@ -9117,11 +9180,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" ht="15" customHeight="1">
+    <row r="190" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5">
         <v>212</v>
       </c>
-      <c r="B190" t="s" s="6">
+      <c r="B190" s="6" t="s">
         <v>199</v>
       </c>
       <c r="C190" s="5">
@@ -9152,11 +9215,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" ht="15" customHeight="1">
+    <row r="191" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5">
         <v>213</v>
       </c>
-      <c r="B191" t="s" s="6">
+      <c r="B191" s="6" t="s">
         <v>200</v>
       </c>
       <c r="C191" s="5">
@@ -9187,11 +9250,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" ht="15" customHeight="1">
+    <row r="192" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5">
         <v>214</v>
       </c>
-      <c r="B192" t="s" s="6">
+      <c r="B192" s="6" t="s">
         <v>201</v>
       </c>
       <c r="C192" s="5">
@@ -9222,11 +9285,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" ht="15" customHeight="1">
+    <row r="193" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
         <v>215</v>
       </c>
-      <c r="B193" t="s" s="6">
+      <c r="B193" s="6" t="s">
         <v>202</v>
       </c>
       <c r="C193" s="5">
@@ -9257,11 +9320,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" ht="15" customHeight="1">
+    <row r="194" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5">
         <v>216</v>
       </c>
-      <c r="B194" t="s" s="6">
+      <c r="B194" s="6" t="s">
         <v>203</v>
       </c>
       <c r="C194" s="5">
@@ -9292,11 +9355,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" ht="15" customHeight="1">
+    <row r="195" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5">
         <v>217</v>
       </c>
-      <c r="B195" t="s" s="6">
+      <c r="B195" s="6" t="s">
         <v>204</v>
       </c>
       <c r="C195" s="5">
@@ -9327,11 +9390,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" ht="15" customHeight="1">
+    <row r="196" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5">
         <v>218</v>
       </c>
-      <c r="B196" t="s" s="6">
+      <c r="B196" s="6" t="s">
         <v>205</v>
       </c>
       <c r="C196" s="5">
@@ -9362,11 +9425,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" ht="15" customHeight="1">
+    <row r="197" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5">
         <v>219</v>
       </c>
-      <c r="B197" t="s" s="6">
+      <c r="B197" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C197" s="5">
@@ -9397,11 +9460,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" ht="15" customHeight="1">
+    <row r="198" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5">
         <v>220</v>
       </c>
-      <c r="B198" t="s" s="6">
+      <c r="B198" s="6" t="s">
         <v>207</v>
       </c>
       <c r="C198" s="5">
@@ -9432,11 +9495,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" ht="15" customHeight="1">
+    <row r="199" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5">
         <v>221</v>
       </c>
-      <c r="B199" t="s" s="6">
+      <c r="B199" s="6" t="s">
         <v>208</v>
       </c>
       <c r="C199" s="5">
@@ -9467,11 +9530,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" ht="15" customHeight="1">
+    <row r="200" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5">
         <v>222</v>
       </c>
-      <c r="B200" t="s" s="6">
+      <c r="B200" s="6" t="s">
         <v>209</v>
       </c>
       <c r="C200" s="5">
@@ -9502,11 +9565,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" ht="15" customHeight="1">
+    <row r="201" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5">
         <v>223</v>
       </c>
-      <c r="B201" t="s" s="6">
+      <c r="B201" s="6" t="s">
         <v>210</v>
       </c>
       <c r="C201" s="5">
@@ -9537,11 +9600,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" ht="15" customHeight="1">
+    <row r="202" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5">
         <v>224</v>
       </c>
-      <c r="B202" t="s" s="6">
+      <c r="B202" s="6" t="s">
         <v>211</v>
       </c>
       <c r="C202" s="5">
@@ -9572,11 +9635,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" ht="15" customHeight="1">
+    <row r="203" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5">
         <v>225</v>
       </c>
-      <c r="B203" t="s" s="6">
+      <c r="B203" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C203" s="5">
@@ -9607,11 +9670,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" ht="15" customHeight="1">
+    <row r="204" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5">
         <v>226</v>
       </c>
-      <c r="B204" t="s" s="6">
+      <c r="B204" s="6" t="s">
         <v>213</v>
       </c>
       <c r="C204" s="5">
@@ -9642,11 +9705,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" ht="15" customHeight="1">
+    <row r="205" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5">
         <v>227</v>
       </c>
-      <c r="B205" t="s" s="6">
+      <c r="B205" s="6" t="s">
         <v>214</v>
       </c>
       <c r="C205" s="5">
@@ -9677,11 +9740,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" ht="15" customHeight="1">
+    <row r="206" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5">
         <v>228</v>
       </c>
-      <c r="B206" t="s" s="6">
+      <c r="B206" s="6" t="s">
         <v>215</v>
       </c>
       <c r="C206" s="5">
@@ -9712,11 +9775,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" ht="15" customHeight="1">
+    <row r="207" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5">
         <v>229</v>
       </c>
-      <c r="B207" t="s" s="6">
+      <c r="B207" s="6" t="s">
         <v>216</v>
       </c>
       <c r="C207" s="5">
@@ -9747,11 +9810,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" ht="15" customHeight="1">
+    <row r="208" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5">
         <v>230</v>
       </c>
-      <c r="B208" t="s" s="6">
+      <c r="B208" s="6" t="s">
         <v>217</v>
       </c>
       <c r="C208" s="5">
@@ -9782,11 +9845,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" ht="15" customHeight="1">
+    <row r="209" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5">
         <v>231</v>
       </c>
-      <c r="B209" t="s" s="6">
+      <c r="B209" s="6" t="s">
         <v>218</v>
       </c>
       <c r="C209" s="5">
@@ -9817,11 +9880,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" ht="15" customHeight="1">
+    <row r="210" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5">
         <v>232</v>
       </c>
-      <c r="B210" t="s" s="6">
+      <c r="B210" s="6" t="s">
         <v>219</v>
       </c>
       <c r="C210" s="5">
@@ -9852,11 +9915,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" ht="15" customHeight="1">
+    <row r="211" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5">
         <v>233</v>
       </c>
-      <c r="B211" t="s" s="6">
+      <c r="B211" s="6" t="s">
         <v>220</v>
       </c>
       <c r="C211" s="5">
@@ -9887,11 +9950,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" ht="15" customHeight="1">
+    <row r="212" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5">
         <v>234</v>
       </c>
-      <c r="B212" t="s" s="6">
+      <c r="B212" s="6" t="s">
         <v>221</v>
       </c>
       <c r="C212" s="5">
@@ -9922,11 +9985,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" ht="15" customHeight="1">
+    <row r="213" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5">
         <v>235</v>
       </c>
-      <c r="B213" t="s" s="6">
+      <c r="B213" s="6" t="s">
         <v>222</v>
       </c>
       <c r="C213" s="5">
@@ -9957,11 +10020,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" ht="15" customHeight="1">
+    <row r="214" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5">
         <v>236</v>
       </c>
-      <c r="B214" t="s" s="6">
+      <c r="B214" s="6" t="s">
         <v>223</v>
       </c>
       <c r="C214" s="5">
@@ -9992,11 +10055,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" ht="15" customHeight="1">
+    <row r="215" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5">
         <v>238</v>
       </c>
-      <c r="B215" t="s" s="6">
+      <c r="B215" s="6" t="s">
         <v>224</v>
       </c>
       <c r="C215" s="5">
@@ -10027,11 +10090,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" ht="15" customHeight="1">
+    <row r="216" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5">
         <v>239</v>
       </c>
-      <c r="B216" t="s" s="6">
+      <c r="B216" s="6" t="s">
         <v>225</v>
       </c>
       <c r="C216" s="5">
@@ -10062,11 +10125,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" ht="15" customHeight="1">
+    <row r="217" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5">
         <v>240</v>
       </c>
-      <c r="B217" t="s" s="6">
+      <c r="B217" s="6" t="s">
         <v>226</v>
       </c>
       <c r="C217" s="5">
@@ -10097,11 +10160,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" ht="15" customHeight="1">
+    <row r="218" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5">
         <v>241</v>
       </c>
-      <c r="B218" t="s" s="6">
+      <c r="B218" s="6" t="s">
         <v>227</v>
       </c>
       <c r="C218" s="5">
@@ -10132,11 +10195,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" ht="15" customHeight="1">
+    <row r="219" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5">
         <v>242</v>
       </c>
-      <c r="B219" t="s" s="6">
+      <c r="B219" s="6" t="s">
         <v>228</v>
       </c>
       <c r="C219" s="5">
@@ -10167,11 +10230,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" ht="15" customHeight="1">
+    <row r="220" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5">
         <v>243</v>
       </c>
-      <c r="B220" t="s" s="6">
+      <c r="B220" s="6" t="s">
         <v>229</v>
       </c>
       <c r="C220" s="5">
@@ -10202,11 +10265,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" ht="15" customHeight="1">
+    <row r="221" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5">
         <v>244</v>
       </c>
-      <c r="B221" t="s" s="6">
+      <c r="B221" s="6" t="s">
         <v>230</v>
       </c>
       <c r="C221" s="5">
@@ -10237,11 +10300,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" ht="15" customHeight="1">
+    <row r="222" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="5">
         <v>247</v>
       </c>
-      <c r="B222" t="s" s="6">
+      <c r="B222" s="6" t="s">
         <v>231</v>
       </c>
       <c r="C222" s="5">
@@ -10272,11 +10335,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" ht="15" customHeight="1">
+    <row r="223" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5">
         <v>248</v>
       </c>
-      <c r="B223" t="s" s="6">
+      <c r="B223" s="6" t="s">
         <v>232</v>
       </c>
       <c r="C223" s="5">
@@ -10307,11 +10370,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" ht="15" customHeight="1">
+    <row r="224" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5">
         <v>249</v>
       </c>
-      <c r="B224" t="s" s="6">
+      <c r="B224" s="6" t="s">
         <v>233</v>
       </c>
       <c r="C224" s="5">
@@ -10342,11 +10405,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" ht="15" customHeight="1">
+    <row r="225" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="5">
         <v>250</v>
       </c>
-      <c r="B225" t="s" s="6">
+      <c r="B225" s="6" t="s">
         <v>234</v>
       </c>
       <c r="C225" s="5">
@@ -10377,11 +10440,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" ht="15" customHeight="1">
+    <row r="226" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5">
         <v>251</v>
       </c>
-      <c r="B226" t="s" s="6">
+      <c r="B226" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C226" s="5">
@@ -10412,11 +10475,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" ht="15" customHeight="1">
+    <row r="227" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5">
         <v>257</v>
       </c>
-      <c r="B227" t="s" s="6">
+      <c r="B227" s="6" t="s">
         <v>236</v>
       </c>
       <c r="C227" s="5">
@@ -10447,11 +10510,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" ht="15" customHeight="1">
+    <row r="228" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5">
         <v>258</v>
       </c>
-      <c r="B228" t="s" s="6">
+      <c r="B228" s="6" t="s">
         <v>237</v>
       </c>
       <c r="C228" s="5">
@@ -10482,11 +10545,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" ht="15" customHeight="1">
+    <row r="229" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5">
         <v>259</v>
       </c>
-      <c r="B229" t="s" s="6">
+      <c r="B229" s="6" t="s">
         <v>238</v>
       </c>
       <c r="C229" s="5">
@@ -10517,11 +10580,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" ht="15" customHeight="1">
+    <row r="230" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5">
         <v>262</v>
       </c>
-      <c r="B230" t="s" s="6">
+      <c r="B230" s="6" t="s">
         <v>239</v>
       </c>
       <c r="C230" s="5">
@@ -10552,11 +10615,11 @@
         <v>800</v>
       </c>
     </row>
-    <row r="231" ht="15" customHeight="1">
+    <row r="231" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5">
         <v>263</v>
       </c>
-      <c r="B231" t="s" s="6">
+      <c r="B231" s="6" t="s">
         <v>240</v>
       </c>
       <c r="C231" s="5">
@@ -10587,11 +10650,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="232" ht="15" customHeight="1">
+    <row r="232" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5">
         <v>264</v>
       </c>
-      <c r="B232" t="s" s="6">
+      <c r="B232" s="6" t="s">
         <v>241</v>
       </c>
       <c r="C232" s="5">
@@ -10622,11 +10685,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" ht="15" customHeight="1">
+    <row r="233" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5">
         <v>265</v>
       </c>
-      <c r="B233" t="s" s="6">
+      <c r="B233" s="6" t="s">
         <v>242</v>
       </c>
       <c r="C233" s="5">
@@ -10657,11 +10720,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" ht="15" customHeight="1">
+    <row r="234" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5">
         <v>267</v>
       </c>
-      <c r="B234" t="s" s="6">
+      <c r="B234" s="6" t="s">
         <v>243</v>
       </c>
       <c r="C234" s="5">
@@ -10692,11 +10755,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" ht="15" customHeight="1">
+    <row r="235" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5">
         <v>268</v>
       </c>
-      <c r="B235" t="s" s="6">
+      <c r="B235" s="6" t="s">
         <v>244</v>
       </c>
       <c r="C235" s="5">
@@ -10727,11 +10790,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" ht="15" customHeight="1">
+    <row r="236" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5">
         <v>269</v>
       </c>
-      <c r="B236" t="s" s="6">
+      <c r="B236" s="6" t="s">
         <v>245</v>
       </c>
       <c r="C236" s="5">
@@ -10762,11 +10825,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" ht="15" customHeight="1">
+    <row r="237" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5">
         <v>270</v>
       </c>
-      <c r="B237" t="s" s="6">
+      <c r="B237" s="6" t="s">
         <v>246</v>
       </c>
       <c r="C237" s="5">
@@ -10797,11 +10860,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" ht="15" customHeight="1">
+    <row r="238" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5">
         <v>271</v>
       </c>
-      <c r="B238" t="s" s="6">
+      <c r="B238" s="6" t="s">
         <v>247</v>
       </c>
       <c r="C238" s="5">
@@ -10832,11 +10895,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" ht="15" customHeight="1">
+    <row r="239" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5">
         <v>272</v>
       </c>
-      <c r="B239" t="s" s="6">
+      <c r="B239" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C239" s="5">
@@ -10867,11 +10930,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" ht="15" customHeight="1">
+    <row r="240" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5">
         <v>273</v>
       </c>
-      <c r="B240" t="s" s="6">
+      <c r="B240" s="6" t="s">
         <v>249</v>
       </c>
       <c r="C240" s="5">
@@ -10902,11 +10965,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" ht="15" customHeight="1">
+    <row r="241" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5">
         <v>274</v>
       </c>
-      <c r="B241" t="s" s="6">
+      <c r="B241" s="6" t="s">
         <v>250</v>
       </c>
       <c r="C241" s="5">
@@ -10937,11 +11000,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" ht="15" customHeight="1">
+    <row r="242" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5">
         <v>275</v>
       </c>
-      <c r="B242" t="s" s="6">
+      <c r="B242" s="6" t="s">
         <v>251</v>
       </c>
       <c r="C242" s="5">
@@ -10972,11 +11035,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" ht="15" customHeight="1">
+    <row r="243" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5">
         <v>276</v>
       </c>
-      <c r="B243" t="s" s="6">
+      <c r="B243" s="6" t="s">
         <v>252</v>
       </c>
       <c r="C243" s="5">
@@ -11007,11 +11070,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" ht="15" customHeight="1">
+    <row r="244" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5">
         <v>277</v>
       </c>
-      <c r="B244" t="s" s="6">
+      <c r="B244" s="6" t="s">
         <v>253</v>
       </c>
       <c r="C244" s="5">
@@ -11042,11 +11105,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" ht="15" customHeight="1">
+    <row r="245" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5">
         <v>279</v>
       </c>
-      <c r="B245" t="s" s="6">
+      <c r="B245" s="6" t="s">
         <v>254</v>
       </c>
       <c r="C245" s="5">
@@ -11077,11 +11140,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" ht="15" customHeight="1">
+    <row r="246" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5">
         <v>280</v>
       </c>
-      <c r="B246" t="s" s="6">
+      <c r="B246" s="6" t="s">
         <v>255</v>
       </c>
       <c r="C246" s="5">
@@ -11112,11 +11175,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" ht="15" customHeight="1">
+    <row r="247" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5">
         <v>281</v>
       </c>
-      <c r="B247" t="s" s="6">
+      <c r="B247" s="6" t="s">
         <v>256</v>
       </c>
       <c r="C247" s="5">
@@ -11147,11 +11210,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" ht="15" customHeight="1">
+    <row r="248" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5">
         <v>282</v>
       </c>
-      <c r="B248" t="s" s="6">
+      <c r="B248" s="6" t="s">
         <v>257</v>
       </c>
       <c r="C248" s="5">
@@ -11182,11 +11245,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" ht="15" customHeight="1">
+    <row r="249" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5">
         <v>283</v>
       </c>
-      <c r="B249" t="s" s="6">
+      <c r="B249" s="6" t="s">
         <v>258</v>
       </c>
       <c r="C249" s="5">
@@ -11217,11 +11280,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" ht="15" customHeight="1">
+    <row r="250" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5">
         <v>284</v>
       </c>
-      <c r="B250" t="s" s="6">
+      <c r="B250" s="6" t="s">
         <v>259</v>
       </c>
       <c r="C250" s="5">
@@ -11252,11 +11315,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" ht="15" customHeight="1">
+    <row r="251" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5">
         <v>285</v>
       </c>
-      <c r="B251" t="s" s="6">
+      <c r="B251" s="6" t="s">
         <v>260</v>
       </c>
       <c r="C251" s="5">
@@ -11287,11 +11350,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" ht="15" customHeight="1">
+    <row r="252" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5">
         <v>286</v>
       </c>
-      <c r="B252" t="s" s="6">
+      <c r="B252" s="6" t="s">
         <v>261</v>
       </c>
       <c r="C252" s="5">
@@ -11322,11 +11385,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" ht="15" customHeight="1">
+    <row r="253" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5">
         <v>287</v>
       </c>
-      <c r="B253" t="s" s="6">
+      <c r="B253" s="6" t="s">
         <v>262</v>
       </c>
       <c r="C253" s="5">
@@ -11357,11 +11420,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" ht="15" customHeight="1">
+    <row r="254" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5">
         <v>288</v>
       </c>
-      <c r="B254" t="s" s="6">
+      <c r="B254" s="6" t="s">
         <v>263</v>
       </c>
       <c r="C254" s="5">
@@ -11392,11 +11455,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" ht="15" customHeight="1">
+    <row r="255" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5">
         <v>289</v>
       </c>
-      <c r="B255" t="s" s="6">
+      <c r="B255" s="6" t="s">
         <v>264</v>
       </c>
       <c r="C255" s="5">
@@ -11427,11 +11490,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" ht="15" customHeight="1">
+    <row r="256" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5">
         <v>290</v>
       </c>
-      <c r="B256" t="s" s="6">
+      <c r="B256" s="6" t="s">
         <v>265</v>
       </c>
       <c r="C256" s="5">
@@ -11462,11 +11525,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" ht="15" customHeight="1">
+    <row r="257" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5">
         <v>291</v>
       </c>
-      <c r="B257" t="s" s="6">
+      <c r="B257" s="6" t="s">
         <v>266</v>
       </c>
       <c r="C257" s="5">
@@ -11497,11 +11560,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" ht="15" customHeight="1">
+    <row r="258" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5">
         <v>298</v>
       </c>
-      <c r="B258" t="s" s="6">
+      <c r="B258" s="6" t="s">
         <v>267</v>
       </c>
       <c r="C258" s="5">
@@ -11532,11 +11595,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="259" ht="15" customHeight="1">
+    <row r="259" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5">
         <v>309</v>
       </c>
-      <c r="B259" t="s" s="6">
+      <c r="B259" s="6" t="s">
         <v>268</v>
       </c>
       <c r="C259" s="5">
@@ -11567,11 +11630,11 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="260" ht="15" customHeight="1">
+    <row r="260" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="5">
         <v>310</v>
       </c>
-      <c r="B260" t="s" s="6">
+      <c r="B260" s="6" t="s">
         <v>269</v>
       </c>
       <c r="C260" s="5">
@@ -11602,11 +11665,11 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="261" ht="15" customHeight="1">
+    <row r="261" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5">
         <v>311</v>
       </c>
-      <c r="B261" t="s" s="6">
+      <c r="B261" s="6" t="s">
         <v>270</v>
       </c>
       <c r="C261" s="5">
@@ -11637,11 +11700,11 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="262" ht="15" customHeight="1">
+    <row r="262" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5">
         <v>312</v>
       </c>
-      <c r="B262" t="s" s="6">
+      <c r="B262" s="6" t="s">
         <v>271</v>
       </c>
       <c r="C262" s="5">
@@ -11672,11 +11735,11 @@
         <v>350</v>
       </c>
     </row>
-    <row r="263" ht="15" customHeight="1">
+    <row r="263" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5">
         <v>313</v>
       </c>
-      <c r="B263" t="s" s="6">
+      <c r="B263" s="6" t="s">
         <v>272</v>
       </c>
       <c r="C263" s="5">
@@ -11707,11 +11770,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" ht="15" customHeight="1">
+    <row r="264" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5">
         <v>314</v>
       </c>
-      <c r="B264" t="s" s="6">
+      <c r="B264" s="6" t="s">
         <v>273</v>
       </c>
       <c r="C264" s="5">
@@ -11742,11 +11805,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" ht="15" customHeight="1">
+    <row r="265" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5">
         <v>316</v>
       </c>
-      <c r="B265" t="s" s="6">
+      <c r="B265" s="6" t="s">
         <v>274</v>
       </c>
       <c r="C265" s="5">
@@ -11777,11 +11840,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" ht="15" customHeight="1">
+    <row r="266" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5">
         <v>317</v>
       </c>
-      <c r="B266" t="s" s="6">
+      <c r="B266" s="6" t="s">
         <v>275</v>
       </c>
       <c r="C266" s="5">
@@ -11812,11 +11875,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" ht="15" customHeight="1">
+    <row r="267" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5">
         <v>318</v>
       </c>
-      <c r="B267" t="s" s="6">
+      <c r="B267" s="6" t="s">
         <v>276</v>
       </c>
       <c r="C267" s="5">
@@ -11847,11 +11910,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" ht="15" customHeight="1">
+    <row r="268" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5">
         <v>319</v>
       </c>
-      <c r="B268" t="s" s="6">
+      <c r="B268" s="6" t="s">
         <v>277</v>
       </c>
       <c r="C268" s="5">
@@ -11882,11 +11945,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" ht="15" customHeight="1">
+    <row r="269" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5">
         <v>320</v>
       </c>
-      <c r="B269" t="s" s="6">
+      <c r="B269" s="6" t="s">
         <v>278</v>
       </c>
       <c r="C269" s="5">
@@ -11917,11 +11980,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" ht="15" customHeight="1">
+    <row r="270" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5">
         <v>321</v>
       </c>
-      <c r="B270" t="s" s="6">
+      <c r="B270" s="6" t="s">
         <v>279</v>
       </c>
       <c r="C270" s="5">
@@ -11952,11 +12015,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" ht="15" customHeight="1">
+    <row r="271" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5">
         <v>322</v>
       </c>
-      <c r="B271" t="s" s="6">
+      <c r="B271" s="6" t="s">
         <v>280</v>
       </c>
       <c r="C271" s="5">
@@ -11987,11 +12050,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" ht="15" customHeight="1">
+    <row r="272" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="5">
         <v>324</v>
       </c>
-      <c r="B272" t="s" s="6">
+      <c r="B272" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C272" s="5">
@@ -12022,11 +12085,11 @@
         <v>103000</v>
       </c>
     </row>
-    <row r="273" ht="15" customHeight="1">
+    <row r="273" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5">
         <v>325</v>
       </c>
-      <c r="B273" t="s" s="6">
+      <c r="B273" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C273" s="5">
@@ -12057,11 +12120,11 @@
         <v>770</v>
       </c>
     </row>
-    <row r="274" ht="15" customHeight="1">
+    <row r="274" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5">
         <v>326</v>
       </c>
-      <c r="B274" t="s" s="6">
+      <c r="B274" s="6" t="s">
         <v>283</v>
       </c>
       <c r="C274" s="5">
@@ -12092,11 +12155,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="275" ht="15" customHeight="1">
+    <row r="275" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>327</v>
       </c>
-      <c r="B275" t="s" s="6">
+      <c r="B275" s="6" t="s">
         <v>284</v>
       </c>
       <c r="C275" s="5">
@@ -12127,11 +12190,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="276" ht="15" customHeight="1">
+    <row r="276" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>328</v>
       </c>
-      <c r="B276" t="s" s="6">
+      <c r="B276" s="6" t="s">
         <v>285</v>
       </c>
       <c r="C276" s="5">
@@ -12162,11 +12225,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" ht="15" customHeight="1">
+    <row r="277" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>329</v>
       </c>
-      <c r="B277" t="s" s="6">
+      <c r="B277" s="6" t="s">
         <v>286</v>
       </c>
       <c r="C277" s="5">
@@ -12197,11 +12260,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" ht="15" customHeight="1">
+    <row r="278" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>330</v>
       </c>
-      <c r="B278" t="s" s="6">
+      <c r="B278" s="6" t="s">
         <v>287</v>
       </c>
       <c r="C278" s="5">
@@ -12232,11 +12295,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" ht="15" customHeight="1">
+    <row r="279" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>331</v>
       </c>
-      <c r="B279" t="s" s="6">
+      <c r="B279" s="6" t="s">
         <v>288</v>
       </c>
       <c r="C279" s="5">
@@ -12267,11 +12330,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" ht="15" customHeight="1">
+    <row r="280" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>332</v>
       </c>
-      <c r="B280" t="s" s="6">
+      <c r="B280" s="6" t="s">
         <v>289</v>
       </c>
       <c r="C280" s="5">
@@ -12302,11 +12365,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" ht="15" customHeight="1">
+    <row r="281" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>333</v>
       </c>
-      <c r="B281" t="s" s="6">
+      <c r="B281" s="6" t="s">
         <v>290</v>
       </c>
       <c r="C281" s="5">
@@ -12337,11 +12400,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" ht="15" customHeight="1">
+    <row r="282" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>334</v>
       </c>
-      <c r="B282" t="s" s="6">
+      <c r="B282" s="6" t="s">
         <v>291</v>
       </c>
       <c r="C282" s="5">
@@ -12372,11 +12435,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" ht="15" customHeight="1">
+    <row r="283" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>335</v>
       </c>
-      <c r="B283" t="s" s="6">
+      <c r="B283" s="6" t="s">
         <v>292</v>
       </c>
       <c r="C283" s="5">
@@ -12407,11 +12470,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" ht="15" customHeight="1">
+    <row r="284" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>336</v>
       </c>
-      <c r="B284" t="s" s="6">
+      <c r="B284" s="6" t="s">
         <v>293</v>
       </c>
       <c r="C284" s="5">
@@ -12442,11 +12505,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" ht="15" customHeight="1">
+    <row r="285" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>337</v>
       </c>
-      <c r="B285" t="s" s="6">
+      <c r="B285" s="6" t="s">
         <v>294</v>
       </c>
       <c r="C285" s="5">
@@ -12477,11 +12540,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" ht="15" customHeight="1">
+    <row r="286" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>338</v>
       </c>
-      <c r="B286" t="s" s="6">
+      <c r="B286" s="6" t="s">
         <v>295</v>
       </c>
       <c r="C286" s="5">
@@ -12512,11 +12575,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" ht="15" customHeight="1">
+    <row r="287" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>339</v>
       </c>
-      <c r="B287" t="s" s="6">
+      <c r="B287" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C287" s="5">
@@ -12547,11 +12610,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" ht="15" customHeight="1">
+    <row r="288" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>340</v>
       </c>
-      <c r="B288" t="s" s="6">
+      <c r="B288" s="6" t="s">
         <v>297</v>
       </c>
       <c r="C288" s="5">
@@ -12582,11 +12645,11 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="289" ht="15" customHeight="1">
+    <row r="289" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5">
         <v>341</v>
       </c>
-      <c r="B289" t="s" s="6">
+      <c r="B289" s="6" t="s">
         <v>298</v>
       </c>
       <c r="C289" s="5">
@@ -12617,11 +12680,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="290" ht="15" customHeight="1">
+    <row r="290" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="5">
         <v>342</v>
       </c>
-      <c r="B290" t="s" s="6">
+      <c r="B290" s="6" t="s">
         <v>299</v>
       </c>
       <c r="C290" s="5">
@@ -12652,11 +12715,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="291" ht="15" customHeight="1">
+    <row r="291" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="5">
         <v>343</v>
       </c>
-      <c r="B291" t="s" s="6">
+      <c r="B291" s="6" t="s">
         <v>300</v>
       </c>
       <c r="C291" s="5">
@@ -12687,11 +12750,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" ht="15" customHeight="1">
+    <row r="292" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="5">
         <v>345</v>
       </c>
-      <c r="B292" t="s" s="6">
+      <c r="B292" s="6" t="s">
         <v>301</v>
       </c>
       <c r="C292" s="5">
@@ -12722,11 +12785,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" ht="15" customHeight="1">
+    <row r="293" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="5">
         <v>346</v>
       </c>
-      <c r="B293" t="s" s="6">
+      <c r="B293" s="6" t="s">
         <v>302</v>
       </c>
       <c r="C293" s="5">
@@ -12757,11 +12820,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" ht="15" customHeight="1">
+    <row r="294" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="5">
         <v>348</v>
       </c>
-      <c r="B294" t="s" s="6">
+      <c r="B294" s="6" t="s">
         <v>303</v>
       </c>
       <c r="C294" s="5">
@@ -12792,11 +12855,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" ht="15" customHeight="1">
+    <row r="295" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5">
         <v>349</v>
       </c>
-      <c r="B295" t="s" s="6">
+      <c r="B295" s="6" t="s">
         <v>304</v>
       </c>
       <c r="C295" s="5">
@@ -12827,11 +12890,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" ht="15" customHeight="1">
+    <row r="296" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="5">
         <v>350</v>
       </c>
-      <c r="B296" t="s" s="6">
+      <c r="B296" s="6" t="s">
         <v>305</v>
       </c>
       <c r="C296" s="5">
@@ -12862,11 +12925,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" ht="15" customHeight="1">
+    <row r="297" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5">
         <v>351</v>
       </c>
-      <c r="B297" t="s" s="6">
+      <c r="B297" s="6" t="s">
         <v>306</v>
       </c>
       <c r="C297" s="5">
@@ -12897,11 +12960,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" ht="15" customHeight="1">
+    <row r="298" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="5">
         <v>352</v>
       </c>
-      <c r="B298" t="s" s="6">
+      <c r="B298" s="6" t="s">
         <v>307</v>
       </c>
       <c r="C298" s="5">
@@ -12932,11 +12995,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" ht="15" customHeight="1">
+    <row r="299" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="5">
         <v>353</v>
       </c>
-      <c r="B299" t="s" s="6">
+      <c r="B299" s="6" t="s">
         <v>308</v>
       </c>
       <c r="C299" s="5">
@@ -12967,11 +13030,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" ht="15" customHeight="1">
+    <row r="300" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="5">
         <v>355</v>
       </c>
-      <c r="B300" t="s" s="6">
+      <c r="B300" s="6" t="s">
         <v>309</v>
       </c>
       <c r="C300" s="5">
@@ -13002,11 +13065,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" ht="15" customHeight="1">
+    <row r="301" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="5">
         <v>356</v>
       </c>
-      <c r="B301" t="s" s="6">
+      <c r="B301" s="6" t="s">
         <v>310</v>
       </c>
       <c r="C301" s="5">
@@ -13037,11 +13100,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" ht="15" customHeight="1">
+    <row r="302" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="5">
         <v>357</v>
       </c>
-      <c r="B302" t="s" s="6">
+      <c r="B302" s="6" t="s">
         <v>311</v>
       </c>
       <c r="C302" s="5">
@@ -13072,11 +13135,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" ht="15" customHeight="1">
+    <row r="303" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5">
         <v>358</v>
       </c>
-      <c r="B303" t="s" s="6">
+      <c r="B303" s="6" t="s">
         <v>312</v>
       </c>
       <c r="C303" s="5">
@@ -13107,11 +13170,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" ht="15" customHeight="1">
+    <row r="304" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="5">
         <v>359</v>
       </c>
-      <c r="B304" t="s" s="6">
+      <c r="B304" s="6" t="s">
         <v>313</v>
       </c>
       <c r="C304" s="5">
@@ -13142,11 +13205,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" ht="15" customHeight="1">
+    <row r="305" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="5">
         <v>360</v>
       </c>
-      <c r="B305" t="s" s="6">
+      <c r="B305" s="6" t="s">
         <v>314</v>
       </c>
       <c r="C305" s="5">
@@ -13177,11 +13240,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" ht="15" customHeight="1">
+    <row r="306" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="5">
         <v>361</v>
       </c>
-      <c r="B306" t="s" s="6">
+      <c r="B306" s="6" t="s">
         <v>315</v>
       </c>
       <c r="C306" s="5">
@@ -13212,11 +13275,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" ht="15" customHeight="1">
+    <row r="307" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="5">
         <v>362</v>
       </c>
-      <c r="B307" t="s" s="6">
+      <c r="B307" s="6" t="s">
         <v>316</v>
       </c>
       <c r="C307" s="5">
@@ -13247,11 +13310,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" ht="15" customHeight="1">
+    <row r="308" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="5">
         <v>363</v>
       </c>
-      <c r="B308" t="s" s="6">
+      <c r="B308" s="6" t="s">
         <v>317</v>
       </c>
       <c r="C308" s="5">
@@ -13282,11 +13345,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" ht="15" customHeight="1">
+    <row r="309" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5">
         <v>364</v>
       </c>
-      <c r="B309" t="s" s="6">
+      <c r="B309" s="6" t="s">
         <v>318</v>
       </c>
       <c r="C309" s="5">
@@ -13317,11 +13380,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" ht="15" customHeight="1">
+    <row r="310" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="5">
         <v>365</v>
       </c>
-      <c r="B310" t="s" s="6">
+      <c r="B310" s="6" t="s">
         <v>319</v>
       </c>
       <c r="C310" s="5">
@@ -13352,11 +13415,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" ht="15" customHeight="1">
+    <row r="311" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="5">
         <v>366</v>
       </c>
-      <c r="B311" t="s" s="6">
+      <c r="B311" s="6" t="s">
         <v>320</v>
       </c>
       <c r="C311" s="5">
@@ -13387,11 +13450,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" ht="15" customHeight="1">
+    <row r="312" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="5">
         <v>372</v>
       </c>
-      <c r="B312" t="s" s="6">
+      <c r="B312" s="6" t="s">
         <v>321</v>
       </c>
       <c r="C312" s="5">
@@ -13422,11 +13485,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" ht="15" customHeight="1">
+    <row r="313" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="5">
         <v>373</v>
       </c>
-      <c r="B313" t="s" s="6">
+      <c r="B313" s="6" t="s">
         <v>322</v>
       </c>
       <c r="C313" s="5">
@@ -13457,11 +13520,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" ht="15" customHeight="1">
+    <row r="314" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="5">
         <v>374</v>
       </c>
-      <c r="B314" t="s" s="6">
+      <c r="B314" s="6" t="s">
         <v>323</v>
       </c>
       <c r="C314" s="5">
@@ -13492,11 +13555,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" ht="15" customHeight="1">
+    <row r="315" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="5">
         <v>376</v>
       </c>
-      <c r="B315" t="s" s="6">
+      <c r="B315" s="6" t="s">
         <v>324</v>
       </c>
       <c r="C315" s="5">
@@ -13527,11 +13590,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" ht="15" customHeight="1">
+    <row r="316" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="5">
         <v>382</v>
       </c>
-      <c r="B316" t="s" s="6">
+      <c r="B316" s="6" t="s">
         <v>325</v>
       </c>
       <c r="C316" s="5">
@@ -13562,11 +13625,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" ht="15" customHeight="1">
+    <row r="317" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="5">
         <v>383</v>
       </c>
-      <c r="B317" t="s" s="6">
+      <c r="B317" s="6" t="s">
         <v>326</v>
       </c>
       <c r="C317" s="5">
@@ -13597,11 +13660,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" ht="15" customHeight="1">
+    <row r="318" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5">
         <v>384</v>
       </c>
-      <c r="B318" t="s" s="6">
+      <c r="B318" s="6" t="s">
         <v>327</v>
       </c>
       <c r="C318" s="5">
@@ -13632,11 +13695,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="319" ht="15" customHeight="1">
+    <row r="319" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5">
         <v>385</v>
       </c>
-      <c r="B319" t="s" s="6">
+      <c r="B319" s="6" t="s">
         <v>328</v>
       </c>
       <c r="C319" s="5">
@@ -13667,11 +13730,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="320" ht="15" customHeight="1">
+    <row r="320" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5">
         <v>386</v>
       </c>
-      <c r="B320" t="s" s="6">
+      <c r="B320" s="6" t="s">
         <v>329</v>
       </c>
       <c r="C320" s="5">
@@ -13702,11 +13765,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" ht="15" customHeight="1">
+    <row r="321" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5">
         <v>387</v>
       </c>
-      <c r="B321" t="s" s="6">
+      <c r="B321" s="6" t="s">
         <v>330</v>
       </c>
       <c r="C321" s="5">
@@ -13737,11 +13800,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" ht="15" customHeight="1">
+    <row r="322" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5">
         <v>388</v>
       </c>
-      <c r="B322" t="s" s="6">
+      <c r="B322" s="6" t="s">
         <v>331</v>
       </c>
       <c r="C322" s="5">
@@ -13772,11 +13835,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" ht="15" customHeight="1">
+    <row r="323" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="5">
         <v>389</v>
       </c>
-      <c r="B323" t="s" s="6">
+      <c r="B323" s="6" t="s">
         <v>332</v>
       </c>
       <c r="C323" s="5">
@@ -13807,11 +13870,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" ht="15" customHeight="1">
+    <row r="324" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="5">
         <v>390</v>
       </c>
-      <c r="B324" t="s" s="6">
+      <c r="B324" s="6" t="s">
         <v>333</v>
       </c>
       <c r="C324" s="5">
@@ -13842,11 +13905,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" ht="15" customHeight="1">
+    <row r="325" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5">
         <v>391</v>
       </c>
-      <c r="B325" t="s" s="6">
+      <c r="B325" s="6" t="s">
         <v>334</v>
       </c>
       <c r="C325" s="5">
@@ -13877,11 +13940,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" ht="15" customHeight="1">
+    <row r="326" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5">
         <v>398</v>
       </c>
-      <c r="B326" t="s" s="6">
+      <c r="B326" s="6" t="s">
         <v>335</v>
       </c>
       <c r="C326" s="5">
@@ -13912,11 +13975,11 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="327" ht="15" customHeight="1">
+    <row r="327" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="5">
         <v>399</v>
       </c>
-      <c r="B327" t="s" s="6">
+      <c r="B327" s="6" t="s">
         <v>336</v>
       </c>
       <c r="C327" s="5">
@@ -13947,11 +14010,11 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="328" ht="15" customHeight="1">
+    <row r="328" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="5">
         <v>400</v>
       </c>
-      <c r="B328" t="s" s="6">
+      <c r="B328" s="6" t="s">
         <v>337</v>
       </c>
       <c r="C328" s="5">
@@ -13982,11 +14045,11 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="329" ht="15" customHeight="1">
+    <row r="329" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="5">
         <v>401</v>
       </c>
-      <c r="B329" t="s" s="6">
+      <c r="B329" s="6" t="s">
         <v>338</v>
       </c>
       <c r="C329" s="5">
@@ -14017,11 +14080,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="330" ht="15" customHeight="1">
+    <row r="330" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5">
         <v>402</v>
       </c>
-      <c r="B330" t="s" s="6">
+      <c r="B330" s="6" t="s">
         <v>339</v>
       </c>
       <c r="C330" s="5">
@@ -14052,11 +14115,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" ht="15" customHeight="1">
+    <row r="331" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5">
         <v>403</v>
       </c>
-      <c r="B331" t="s" s="6">
+      <c r="B331" s="6" t="s">
         <v>340</v>
       </c>
       <c r="C331" s="5">
@@ -14087,11 +14150,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" ht="15" customHeight="1">
+    <row r="332" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5">
         <v>404</v>
       </c>
-      <c r="B332" t="s" s="6">
+      <c r="B332" s="6" t="s">
         <v>341</v>
       </c>
       <c r="C332" s="5">
@@ -14122,11 +14185,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" ht="15" customHeight="1">
+    <row r="333" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5">
         <v>405</v>
       </c>
-      <c r="B333" t="s" s="6">
+      <c r="B333" s="6" t="s">
         <v>342</v>
       </c>
       <c r="C333" s="5">
@@ -14157,11 +14220,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" ht="15" customHeight="1">
+    <row r="334" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5">
         <v>406</v>
       </c>
-      <c r="B334" t="s" s="6">
+      <c r="B334" s="6" t="s">
         <v>343</v>
       </c>
       <c r="C334" s="5">
@@ -14192,11 +14255,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" ht="15" customHeight="1">
+    <row r="335" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5">
         <v>410</v>
       </c>
-      <c r="B335" t="s" s="6">
+      <c r="B335" s="6" t="s">
         <v>344</v>
       </c>
       <c r="C335" s="5">
@@ -14227,11 +14290,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" ht="15" customHeight="1">
+    <row r="336" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="5">
         <v>411</v>
       </c>
-      <c r="B336" t="s" s="6">
+      <c r="B336" s="6" t="s">
         <v>345</v>
       </c>
       <c r="C336" s="5">
@@ -14262,11 +14325,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" ht="15" customHeight="1">
+    <row r="337" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5">
         <v>412</v>
       </c>
-      <c r="B337" t="s" s="6">
+      <c r="B337" s="6" t="s">
         <v>346</v>
       </c>
       <c r="C337" s="5">
@@ -14297,11 +14360,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" ht="15" customHeight="1">
+    <row r="338" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5">
         <v>416</v>
       </c>
-      <c r="B338" t="s" s="6">
+      <c r="B338" s="6" t="s">
         <v>347</v>
       </c>
       <c r="C338" s="5">
@@ -14332,11 +14395,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" ht="15" customHeight="1">
+    <row r="339" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5">
         <v>417</v>
       </c>
-      <c r="B339" t="s" s="6">
+      <c r="B339" s="6" t="s">
         <v>348</v>
       </c>
       <c r="C339" s="5">
@@ -14367,11 +14430,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" ht="15" customHeight="1">
+    <row r="340" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5">
         <v>418</v>
       </c>
-      <c r="B340" t="s" s="6">
+      <c r="B340" s="6" t="s">
         <v>349</v>
       </c>
       <c r="C340" s="5">
@@ -14402,11 +14465,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" ht="15" customHeight="1">
+    <row r="341" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5">
         <v>419</v>
       </c>
-      <c r="B341" t="s" s="6">
+      <c r="B341" s="6" t="s">
         <v>350</v>
       </c>
       <c r="C341" s="5">
@@ -14437,11 +14500,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" ht="15" customHeight="1">
+    <row r="342" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5">
         <v>420</v>
       </c>
-      <c r="B342" t="s" s="6">
+      <c r="B342" s="6" t="s">
         <v>351</v>
       </c>
       <c r="C342" s="5">
@@ -14472,11 +14535,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" ht="15" customHeight="1">
+    <row r="343" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="5">
         <v>421</v>
       </c>
-      <c r="B343" t="s" s="6">
+      <c r="B343" s="6" t="s">
         <v>352</v>
       </c>
       <c r="C343" s="5">
@@ -14507,11 +14570,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" ht="15" customHeight="1">
+    <row r="344" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5">
         <v>422</v>
       </c>
-      <c r="B344" t="s" s="6">
+      <c r="B344" s="6" t="s">
         <v>353</v>
       </c>
       <c r="C344" s="5">
@@ -14542,11 +14605,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" ht="15" customHeight="1">
+    <row r="345" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="5">
         <v>423</v>
       </c>
-      <c r="B345" t="s" s="6">
+      <c r="B345" s="6" t="s">
         <v>354</v>
       </c>
       <c r="C345" s="5">
@@ -14577,11 +14640,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" ht="15" customHeight="1">
+    <row r="346" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="5">
         <v>424</v>
       </c>
-      <c r="B346" t="s" s="6">
+      <c r="B346" s="6" t="s">
         <v>355</v>
       </c>
       <c r="C346" s="5">
@@ -14612,11 +14675,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" ht="15" customHeight="1">
+    <row r="347" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5">
         <v>425</v>
       </c>
-      <c r="B347" t="s" s="6">
+      <c r="B347" s="6" t="s">
         <v>356</v>
       </c>
       <c r="C347" s="5">
@@ -14647,11 +14710,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" ht="15" customHeight="1">
+    <row r="348" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5">
         <v>426</v>
       </c>
-      <c r="B348" t="s" s="6">
+      <c r="B348" s="6" t="s">
         <v>357</v>
       </c>
       <c r="C348" s="5">
@@ -14682,11 +14745,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" ht="15" customHeight="1">
+    <row r="349" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="5">
         <v>427</v>
       </c>
-      <c r="B349" t="s" s="6">
+      <c r="B349" s="6" t="s">
         <v>358</v>
       </c>
       <c r="C349" s="5">
@@ -14717,11 +14780,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" ht="15" customHeight="1">
+    <row r="350" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5">
         <v>428</v>
       </c>
-      <c r="B350" t="s" s="6">
+      <c r="B350" s="6" t="s">
         <v>359</v>
       </c>
       <c r="C350" s="5">
@@ -14752,11 +14815,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" ht="15" customHeight="1">
+    <row r="351" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="5">
         <v>429</v>
       </c>
-      <c r="B351" t="s" s="6">
+      <c r="B351" s="6" t="s">
         <v>360</v>
       </c>
       <c r="C351" s="5">
@@ -14787,11 +14850,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" ht="15" customHeight="1">
+    <row r="352" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="5">
         <v>430</v>
       </c>
-      <c r="B352" t="s" s="6">
+      <c r="B352" s="6" t="s">
         <v>361</v>
       </c>
       <c r="C352" s="5">
@@ -14822,11 +14885,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" ht="15" customHeight="1">
+    <row r="353" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5">
         <v>431</v>
       </c>
-      <c r="B353" t="s" s="6">
+      <c r="B353" s="6" t="s">
         <v>362</v>
       </c>
       <c r="C353" s="5">
@@ -14857,11 +14920,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" ht="15" customHeight="1">
+    <row r="354" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5">
         <v>432</v>
       </c>
-      <c r="B354" t="s" s="6">
+      <c r="B354" s="6" t="s">
         <v>363</v>
       </c>
       <c r="C354" s="5">
@@ -14892,11 +14955,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" ht="15" customHeight="1">
+    <row r="355" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5">
         <v>433</v>
       </c>
-      <c r="B355" t="s" s="6">
+      <c r="B355" s="6" t="s">
         <v>364</v>
       </c>
       <c r="C355" s="5">
@@ -14927,11 +14990,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" ht="15" customHeight="1">
+    <row r="356" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5">
         <v>443</v>
       </c>
-      <c r="B356" t="s" s="6">
+      <c r="B356" s="6" t="s">
         <v>365</v>
       </c>
       <c r="C356" s="5">
@@ -14962,11 +15025,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" ht="15" customHeight="1">
+    <row r="357" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="5">
         <v>444</v>
       </c>
-      <c r="B357" t="s" s="6">
+      <c r="B357" s="6" t="s">
         <v>366</v>
       </c>
       <c r="C357" s="5">
@@ -14997,11 +15060,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" ht="15" customHeight="1">
+    <row r="358" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5">
         <v>446</v>
       </c>
-      <c r="B358" t="s" s="6">
+      <c r="B358" s="6" t="s">
         <v>367</v>
       </c>
       <c r="C358" s="5">
@@ -15032,11 +15095,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" ht="15" customHeight="1">
+    <row r="359" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5">
         <v>447</v>
       </c>
-      <c r="B359" t="s" s="6">
+      <c r="B359" s="6" t="s">
         <v>368</v>
       </c>
       <c r="C359" s="5">
@@ -15067,11 +15130,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" ht="15" customHeight="1">
+    <row r="360" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="5">
         <v>448</v>
       </c>
-      <c r="B360" t="s" s="6">
+      <c r="B360" s="6" t="s">
         <v>369</v>
       </c>
       <c r="C360" s="5">
@@ -15102,11 +15165,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" ht="15" customHeight="1">
+    <row r="361" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5">
         <v>451</v>
       </c>
-      <c r="B361" t="s" s="6">
+      <c r="B361" s="6" t="s">
         <v>370</v>
       </c>
       <c r="C361" s="5">
@@ -15137,11 +15200,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" ht="15" customHeight="1">
+    <row r="362" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="5">
         <v>452</v>
       </c>
-      <c r="B362" t="s" s="6">
+      <c r="B362" s="6" t="s">
         <v>371</v>
       </c>
       <c r="C362" s="5">
@@ -15172,11 +15235,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" ht="15" customHeight="1">
+    <row r="363" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5">
         <v>453</v>
       </c>
-      <c r="B363" t="s" s="6">
+      <c r="B363" s="6" t="s">
         <v>372</v>
       </c>
       <c r="C363" s="5">
@@ -15207,11 +15270,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" ht="15" customHeight="1">
+    <row r="364" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="5">
         <v>454</v>
       </c>
-      <c r="B364" t="s" s="6">
+      <c r="B364" s="6" t="s">
         <v>373</v>
       </c>
       <c r="C364" s="5">
@@ -15242,11 +15305,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" ht="15" customHeight="1">
+    <row r="365" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5">
         <v>458</v>
       </c>
-      <c r="B365" t="s" s="6">
+      <c r="B365" s="6" t="s">
         <v>374</v>
       </c>
       <c r="C365" s="5">
@@ -15277,11 +15340,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" ht="15" customHeight="1">
+    <row r="366" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5">
         <v>459</v>
       </c>
-      <c r="B366" t="s" s="6">
+      <c r="B366" s="6" t="s">
         <v>375</v>
       </c>
       <c r="C366" s="5">
@@ -15312,11 +15375,11 @@
         <v>17881</v>
       </c>
     </row>
-    <row r="367" ht="15" customHeight="1">
+    <row r="367" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="5">
         <v>460</v>
       </c>
-      <c r="B367" t="s" s="6">
+      <c r="B367" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C367" s="5">
@@ -15347,11 +15410,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" ht="15" customHeight="1">
+    <row r="368" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="5">
         <v>461</v>
       </c>
-      <c r="B368" t="s" s="6">
+      <c r="B368" s="6" t="s">
         <v>377</v>
       </c>
       <c r="C368" s="5">
@@ -15382,11 +15445,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" ht="15" customHeight="1">
+    <row r="369" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5">
         <v>462</v>
       </c>
-      <c r="B369" t="s" s="6">
+      <c r="B369" s="6" t="s">
         <v>378</v>
       </c>
       <c r="C369" s="5">
@@ -15417,11 +15480,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" ht="15" customHeight="1">
+    <row r="370" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5">
         <v>463</v>
       </c>
-      <c r="B370" t="s" s="6">
+      <c r="B370" s="6" t="s">
         <v>379</v>
       </c>
       <c r="C370" s="5">
@@ -15452,11 +15515,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" ht="15" customHeight="1">
+    <row r="371" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="5">
         <v>464</v>
       </c>
-      <c r="B371" t="s" s="6">
+      <c r="B371" s="6" t="s">
         <v>380</v>
       </c>
       <c r="C371" s="5">
@@ -15487,11 +15550,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" ht="15" customHeight="1">
+    <row r="372" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="5">
         <v>465</v>
       </c>
-      <c r="B372" t="s" s="6">
+      <c r="B372" s="6" t="s">
         <v>381</v>
       </c>
       <c r="C372" s="5">
@@ -15522,11 +15585,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" ht="15" customHeight="1">
+    <row r="373" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5">
         <v>466</v>
       </c>
-      <c r="B373" t="s" s="6">
+      <c r="B373" s="6" t="s">
         <v>382</v>
       </c>
       <c r="C373" s="5">
@@ -15557,11 +15620,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" ht="15" customHeight="1">
+    <row r="374" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5">
         <v>467</v>
       </c>
-      <c r="B374" t="s" s="6">
+      <c r="B374" s="6" t="s">
         <v>383</v>
       </c>
       <c r="C374" s="5">
@@ -15592,11 +15655,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" ht="15" customHeight="1">
+    <row r="375" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="5">
         <v>468</v>
       </c>
-      <c r="B375" t="s" s="6">
+      <c r="B375" s="6" t="s">
         <v>384</v>
       </c>
       <c r="C375" s="5">
@@ -15627,11 +15690,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" ht="15" customHeight="1">
+    <row r="376" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5">
         <v>469</v>
       </c>
-      <c r="B376" t="s" s="6">
+      <c r="B376" s="6" t="s">
         <v>385</v>
       </c>
       <c r="C376" s="5">
@@ -15662,11 +15725,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" ht="15" customHeight="1">
+    <row r="377" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5">
         <v>471</v>
       </c>
-      <c r="B377" t="s" s="6">
+      <c r="B377" s="6" t="s">
         <v>386</v>
       </c>
       <c r="C377" s="5">
@@ -15697,11 +15760,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="378" ht="15" customHeight="1">
+    <row r="378" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="5">
         <v>472</v>
       </c>
-      <c r="B378" t="s" s="6">
+      <c r="B378" s="6" t="s">
         <v>387</v>
       </c>
       <c r="C378" s="5">
@@ -15732,11 +15795,11 @@
         <v>269167</v>
       </c>
     </row>
-    <row r="379" ht="15" customHeight="1">
+    <row r="379" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5">
         <v>473</v>
       </c>
-      <c r="B379" t="s" s="6">
+      <c r="B379" s="6" t="s">
         <v>388</v>
       </c>
       <c r="C379" s="5">
@@ -15767,11 +15830,11 @@
         <v>269167</v>
       </c>
     </row>
-    <row r="380" ht="15" customHeight="1">
+    <row r="380" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="5">
         <v>474</v>
       </c>
-      <c r="B380" t="s" s="6">
+      <c r="B380" s="6" t="s">
         <v>389</v>
       </c>
       <c r="C380" s="5">
@@ -15802,11 +15865,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" ht="15" customHeight="1">
+    <row r="381" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5">
         <v>475</v>
       </c>
-      <c r="B381" t="s" s="6">
+      <c r="B381" s="6" t="s">
         <v>390</v>
       </c>
       <c r="C381" s="5">
@@ -15837,11 +15900,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" ht="15" customHeight="1">
+    <row r="382" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="5">
         <v>476</v>
       </c>
-      <c r="B382" t="s" s="6">
+      <c r="B382" s="6" t="s">
         <v>391</v>
       </c>
       <c r="C382" s="5">
@@ -15872,11 +15935,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" ht="15" customHeight="1">
+    <row r="383" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5">
         <v>477</v>
       </c>
-      <c r="B383" t="s" s="6">
+      <c r="B383" s="6" t="s">
         <v>392</v>
       </c>
       <c r="C383" s="5">
@@ -15907,11 +15970,11 @@
         <v>269167</v>
       </c>
     </row>
-    <row r="384" ht="15" customHeight="1">
+    <row r="384" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="5">
         <v>478</v>
       </c>
-      <c r="B384" t="s" s="6">
+      <c r="B384" s="6" t="s">
         <v>393</v>
       </c>
       <c r="C384" s="5">
@@ -15942,11 +16005,11 @@
         <v>269167</v>
       </c>
     </row>
-    <row r="385" ht="15" customHeight="1">
+    <row r="385" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>479</v>
       </c>
-      <c r="B385" t="s" s="6">
+      <c r="B385" s="6" t="s">
         <v>394</v>
       </c>
       <c r="C385" s="5">
@@ -15977,11 +16040,11 @@
         <v>269167</v>
       </c>
     </row>
-    <row r="386" ht="15" customHeight="1">
+    <row r="386" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="5">
         <v>480</v>
       </c>
-      <c r="B386" t="s" s="6">
+      <c r="B386" s="6" t="s">
         <v>395</v>
       </c>
       <c r="C386" s="5">
@@ -16012,11 +16075,11 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="387" ht="15" customHeight="1">
+    <row r="387" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="5">
         <v>482</v>
       </c>
-      <c r="B387" t="s" s="6">
+      <c r="B387" s="6" t="s">
         <v>396</v>
       </c>
       <c r="C387" s="5">
@@ -16047,11 +16110,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" ht="15" customHeight="1">
+    <row r="388" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="5">
         <v>483</v>
       </c>
-      <c r="B388" t="s" s="6">
+      <c r="B388" s="6" t="s">
         <v>397</v>
       </c>
       <c r="C388" s="5">
@@ -16082,11 +16145,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" ht="15" customHeight="1">
+    <row r="389" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="5">
         <v>484</v>
       </c>
-      <c r="B389" t="s" s="6">
+      <c r="B389" s="6" t="s">
         <v>398</v>
       </c>
       <c r="C389" s="5">
@@ -16117,11 +16180,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" ht="15" customHeight="1">
+    <row r="390" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="5">
         <v>485</v>
       </c>
-      <c r="B390" t="s" s="6">
+      <c r="B390" s="6" t="s">
         <v>399</v>
       </c>
       <c r="C390" s="5">
@@ -16152,11 +16215,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" ht="15" customHeight="1">
+    <row r="391" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="5">
         <v>486</v>
       </c>
-      <c r="B391" t="s" s="6">
+      <c r="B391" s="6" t="s">
         <v>400</v>
       </c>
       <c r="C391" s="5">
@@ -16187,11 +16250,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" ht="15" customHeight="1">
+    <row r="392" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="5">
         <v>487</v>
       </c>
-      <c r="B392" t="s" s="6">
+      <c r="B392" s="6" t="s">
         <v>401</v>
       </c>
       <c r="C392" s="5">
@@ -16222,11 +16285,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" ht="15" customHeight="1">
+    <row r="393" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="5">
         <v>488</v>
       </c>
-      <c r="B393" t="s" s="6">
+      <c r="B393" s="6" t="s">
         <v>402</v>
       </c>
       <c r="C393" s="5">
@@ -16257,11 +16320,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" ht="15" customHeight="1">
+    <row r="394" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="5">
         <v>489</v>
       </c>
-      <c r="B394" t="s" s="6">
+      <c r="B394" s="6" t="s">
         <v>403</v>
       </c>
       <c r="C394" s="5">
@@ -16292,11 +16355,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" ht="15" customHeight="1">
+    <row r="395" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
         <v>490</v>
       </c>
-      <c r="B395" t="s" s="6">
+      <c r="B395" s="6" t="s">
         <v>404</v>
       </c>
       <c r="C395" s="5">
@@ -16327,11 +16390,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" ht="15" customHeight="1">
+    <row r="396" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
         <v>491</v>
       </c>
-      <c r="B396" t="s" s="6">
+      <c r="B396" s="6" t="s">
         <v>405</v>
       </c>
       <c r="C396" s="5">
@@ -16362,11 +16425,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" ht="15" customHeight="1">
+    <row r="397" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
         <v>492</v>
       </c>
-      <c r="B397" t="s" s="6">
+      <c r="B397" s="6" t="s">
         <v>406</v>
       </c>
       <c r="C397" s="5">
@@ -16397,11 +16460,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" ht="15" customHeight="1">
+    <row r="398" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
         <v>494</v>
       </c>
-      <c r="B398" t="s" s="6">
+      <c r="B398" s="6" t="s">
         <v>407</v>
       </c>
       <c r="C398" s="5">
@@ -16432,11 +16495,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" ht="15" customHeight="1">
+    <row r="399" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
         <v>500</v>
       </c>
-      <c r="B399" t="s" s="6">
+      <c r="B399" s="6" t="s">
         <v>408</v>
       </c>
       <c r="C399" s="5">
@@ -16467,11 +16530,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" ht="15" customHeight="1">
+    <row r="400" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
         <v>501</v>
       </c>
-      <c r="B400" t="s" s="6">
+      <c r="B400" s="6" t="s">
         <v>409</v>
       </c>
       <c r="C400" s="5">
@@ -16502,11 +16565,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" ht="15" customHeight="1">
+    <row r="401" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>503</v>
       </c>
-      <c r="B401" t="s" s="6">
+      <c r="B401" s="6" t="s">
         <v>410</v>
       </c>
       <c r="C401" s="5">
@@ -16537,11 +16600,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" ht="15" customHeight="1">
+    <row r="402" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>504</v>
       </c>
-      <c r="B402" t="s" s="6">
+      <c r="B402" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C402" s="5">
@@ -16572,11 +16635,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" ht="15" customHeight="1">
+    <row r="403" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>505</v>
       </c>
-      <c r="B403" t="s" s="6">
+      <c r="B403" s="6" t="s">
         <v>412</v>
       </c>
       <c r="C403" s="5">
@@ -16607,11 +16670,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" ht="15" customHeight="1">
+    <row r="404" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>506</v>
       </c>
-      <c r="B404" t="s" s="6">
+      <c r="B404" s="6" t="s">
         <v>413</v>
       </c>
       <c r="C404" s="5">
@@ -16644,7 +16707,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/development/L1Menu_Collisions2022_v1_3_0/PrescaleTable/L1Menu_Collisions2022_v1_3_0-13.6TeV_2748b.xlsx
+++ b/development/L1Menu_Collisions2022_v1_3_0/PrescaleTable/L1Menu_Collisions2022_v1_3_0-13.6TeV_2748b.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Downloads/L1MenuRun3-master 4/development/L1Menu_Collisions2022_v1_3_0/PrescaleTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6763DAC-55FF-D447-9AB8-9F18AD41ADFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FFB2D1-D84D-F449-A147-0E739EBE7161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20380" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20380" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2554,8 +2554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV404"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="F186" sqref="F186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2961,28 +2961,28 @@
         <v>0</v>
       </c>
       <c r="D12" s="5">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="E12" s="5">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="F12" s="5">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="G12" s="5">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="H12" s="5">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="I12" s="5">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="J12" s="5">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="K12" s="5">
-        <v>1700</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F33" s="5">
         <v>4</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="E190" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" s="5">
         <v>1</v>
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E191" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" s="5">
         <v>1</v>

--- a/development/L1Menu_Collisions2022_v1_3_0/PrescaleTable/L1Menu_Collisions2022_v1_3_0-13.6TeV_2748b.xlsx
+++ b/development/L1Menu_Collisions2022_v1_3_0/PrescaleTable/L1Menu_Collisions2022_v1_3_0-13.6TeV_2748b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Downloads/L1MenuRun3-master 4/development/L1Menu_Collisions2022_v1_3_0/PrescaleTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FFB2D1-D84D-F449-A147-0E739EBE7161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB01F434-E42E-1B4B-86B8-D00BFFC2958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20380" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="640" windowWidth="20380" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="416">
   <si>
     <t>Index</t>
   </si>
@@ -1262,6 +1262,12 @@
   </si>
   <si>
     <t>L1_TOTEM_4</t>
+  </si>
+  <si>
+    <t>2.1E+34</t>
+  </si>
+  <si>
+    <t>2.3E+34</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1287,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1292,6 +1298,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1352,7 +1364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1362,6 +1374,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2552,20 +2565,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV404"/>
+  <dimension ref="A1:IX404"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="F186" sqref="F186"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="48" style="1" customWidth="1"/>
-    <col min="3" max="256" width="8.83203125" style="1" customWidth="1"/>
+    <col min="3" max="258" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2576,31 +2589,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -2634,8 +2653,14 @@
       <c r="K2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2669,8 +2694,14 @@
       <c r="K3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -2704,8 +2735,14 @@
       <c r="K4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -2739,8 +2776,14 @@
       <c r="K5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -2774,8 +2817,14 @@
       <c r="K6" s="5">
         <v>63000</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="5">
+        <v>63000</v>
+      </c>
+      <c r="M6" s="5">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -2809,8 +2858,14 @@
       <c r="K7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -2844,8 +2899,14 @@
       <c r="K8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2879,8 +2940,14 @@
       <c r="K9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -2914,8 +2981,14 @@
       <c r="K10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -2949,8 +3022,14 @@
       <c r="K11" s="5">
         <v>22000</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="5">
+        <v>22000</v>
+      </c>
+      <c r="M11" s="5">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -2984,8 +3063,14 @@
       <c r="K12" s="5">
         <v>3400</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="5">
+        <v>3400</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -3019,8 +3104,14 @@
       <c r="K13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -3040,22 +3131,28 @@
         <v>400</v>
       </c>
       <c r="G14" s="5">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="H14" s="5">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="I14" s="5">
         <v>280</v>
       </c>
       <c r="J14" s="5">
+        <v>280</v>
+      </c>
+      <c r="K14" s="5">
+        <v>280</v>
+      </c>
+      <c r="L14" s="5">
         <v>200</v>
       </c>
-      <c r="K14" s="5">
+      <c r="M14" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -3089,8 +3186,14 @@
       <c r="K15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -3124,8 +3227,14 @@
       <c r="K16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -3159,8 +3268,14 @@
       <c r="K17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -3194,8 +3309,14 @@
       <c r="K18" s="5">
         <v>1300</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="5">
+        <v>1300</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -3229,8 +3350,14 @@
       <c r="K19" s="5">
         <v>210</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="5">
+        <v>210</v>
+      </c>
+      <c r="M19" s="5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -3264,8 +3391,14 @@
       <c r="K20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -3299,8 +3432,14 @@
       <c r="K21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -3334,8 +3473,14 @@
       <c r="K22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -3369,8 +3514,14 @@
       <c r="K23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L23" s="5">
+        <v>1</v>
+      </c>
+      <c r="M23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -3404,8 +3555,14 @@
       <c r="K24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -3439,8 +3596,14 @@
       <c r="K25" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -3474,8 +3637,14 @@
       <c r="K26" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -3509,8 +3678,14 @@
       <c r="K27" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L27" s="5">
+        <v>1</v>
+      </c>
+      <c r="M27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -3544,8 +3719,14 @@
       <c r="K28" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -3579,8 +3760,14 @@
       <c r="K29" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -3614,8 +3801,14 @@
       <c r="K30" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -3649,8 +3842,14 @@
       <c r="K31" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -3684,8 +3883,14 @@
       <c r="K32" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -3702,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G33" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H33" s="5">
         <v>4</v>
@@ -3719,8 +3924,14 @@
       <c r="K33" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L33" s="5">
+        <v>4</v>
+      </c>
+      <c r="M33" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -3754,8 +3965,14 @@
       <c r="K34" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -3789,8 +4006,14 @@
       <c r="K35" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -3824,8 +4047,14 @@
       <c r="K36" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L36" s="5">
+        <v>0</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -3859,8 +4088,14 @@
       <c r="K37" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L37" s="5">
+        <v>0</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -3894,8 +4129,14 @@
       <c r="K38" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -3929,8 +4170,14 @@
       <c r="K39" s="5">
         <v>1500</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L39" s="5">
+        <v>1500</v>
+      </c>
+      <c r="M39" s="5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -3964,8 +4211,14 @@
       <c r="K40" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -3999,8 +4252,14 @@
       <c r="K41" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -4034,8 +4293,14 @@
       <c r="K42" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L42" s="5">
+        <v>1</v>
+      </c>
+      <c r="M42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -4069,8 +4334,14 @@
       <c r="K43" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L43" s="5">
+        <v>1</v>
+      </c>
+      <c r="M43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -4104,8 +4375,14 @@
       <c r="K44" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -4139,8 +4416,14 @@
       <c r="K45" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L45" s="5">
+        <v>1</v>
+      </c>
+      <c r="M45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -4174,8 +4457,14 @@
       <c r="K46" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L46" s="5">
+        <v>1</v>
+      </c>
+      <c r="M46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -4209,8 +4498,14 @@
       <c r="K47" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L47" s="5">
+        <v>1</v>
+      </c>
+      <c r="M47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -4244,8 +4539,14 @@
       <c r="K48" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -4279,8 +4580,14 @@
       <c r="K49" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L49" s="5">
+        <v>1</v>
+      </c>
+      <c r="M49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -4314,8 +4621,14 @@
       <c r="K50" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L50" s="5">
+        <v>0</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -4349,8 +4662,14 @@
       <c r="K51" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L51" s="5">
+        <v>1</v>
+      </c>
+      <c r="M51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -4384,8 +4703,14 @@
       <c r="K52" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L52" s="5">
+        <v>1</v>
+      </c>
+      <c r="M52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>51</v>
       </c>
@@ -4419,8 +4744,14 @@
       <c r="K53" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L53" s="5">
+        <v>0</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -4454,8 +4785,14 @@
       <c r="K54" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>53</v>
       </c>
@@ -4489,8 +4826,14 @@
       <c r="K55" s="5">
         <v>190</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L55" s="5">
+        <v>190</v>
+      </c>
+      <c r="M55" s="5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -4524,8 +4867,14 @@
       <c r="K56" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L56" s="5">
+        <v>0</v>
+      </c>
+      <c r="M56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -4535,14 +4884,14 @@
       <c r="C57" s="5">
         <v>0</v>
       </c>
-      <c r="D57" s="5">
-        <v>1</v>
-      </c>
-      <c r="E57" s="5">
-        <v>1</v>
-      </c>
-      <c r="F57" s="5">
-        <v>1</v>
+      <c r="D57" s="7">
+        <v>0</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0</v>
       </c>
       <c r="G57" s="5">
         <v>1</v>
@@ -4559,8 +4908,14 @@
       <c r="K57" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L57" s="5">
+        <v>1</v>
+      </c>
+      <c r="M57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -4570,14 +4925,14 @@
       <c r="C58" s="5">
         <v>0</v>
       </c>
-      <c r="D58" s="5">
-        <v>1</v>
-      </c>
-      <c r="E58" s="5">
-        <v>1</v>
-      </c>
-      <c r="F58" s="5">
-        <v>1</v>
+      <c r="D58" s="7">
+        <v>0</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0</v>
       </c>
       <c r="G58" s="5">
         <v>1</v>
@@ -4594,8 +4949,14 @@
       <c r="K58" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L58" s="5">
+        <v>1</v>
+      </c>
+      <c r="M58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -4629,8 +4990,14 @@
       <c r="K59" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L59" s="5">
+        <v>0</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -4664,8 +5031,14 @@
       <c r="K60" s="5">
         <v>450</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L60" s="5">
+        <v>450</v>
+      </c>
+      <c r="M60" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -4699,8 +5072,14 @@
       <c r="K61" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L61" s="5">
+        <v>50</v>
+      </c>
+      <c r="M61" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -4734,8 +5113,14 @@
       <c r="K62" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L62" s="5">
+        <v>1</v>
+      </c>
+      <c r="M62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -4769,8 +5154,14 @@
       <c r="K63" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L63" s="5">
+        <v>1</v>
+      </c>
+      <c r="M63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -4804,8 +5195,14 @@
       <c r="K64" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L64" s="5">
+        <v>0</v>
+      </c>
+      <c r="M64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -4839,8 +5236,14 @@
       <c r="K65" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L65" s="5">
+        <v>0</v>
+      </c>
+      <c r="M65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -4874,8 +5277,14 @@
       <c r="K66" s="5">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L66" s="5">
+        <v>700</v>
+      </c>
+      <c r="M66" s="5">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -4909,8 +5318,14 @@
       <c r="K67" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L67" s="5">
+        <v>1</v>
+      </c>
+      <c r="M67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -4944,8 +5359,14 @@
       <c r="K68" s="5">
         <v>800</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L68" s="5">
+        <v>800</v>
+      </c>
+      <c r="M68" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>67</v>
       </c>
@@ -4979,8 +5400,14 @@
       <c r="K69" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L69" s="5">
+        <v>1</v>
+      </c>
+      <c r="M69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -5014,8 +5441,14 @@
       <c r="K70" s="5">
         <v>80</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L70" s="5">
+        <v>80</v>
+      </c>
+      <c r="M70" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>69</v>
       </c>
@@ -5049,8 +5482,14 @@
       <c r="K71" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L71" s="5">
+        <v>1</v>
+      </c>
+      <c r="M71" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -5084,8 +5523,14 @@
       <c r="K72" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L72" s="5">
+        <v>1</v>
+      </c>
+      <c r="M72" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -5119,8 +5564,14 @@
       <c r="K73" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L73" s="5">
+        <v>0</v>
+      </c>
+      <c r="M73" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -5154,8 +5605,14 @@
       <c r="K74" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L74" s="5">
+        <v>0</v>
+      </c>
+      <c r="M74" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -5189,8 +5646,14 @@
       <c r="K75" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L75" s="5">
+        <v>0</v>
+      </c>
+      <c r="M75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -5224,8 +5687,14 @@
       <c r="K76" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L76" s="5">
+        <v>100</v>
+      </c>
+      <c r="M76" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -5259,8 +5728,14 @@
       <c r="K77" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L77" s="5">
+        <v>0</v>
+      </c>
+      <c r="M77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>76</v>
       </c>
@@ -5294,8 +5769,14 @@
       <c r="K78" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L78" s="5">
+        <v>1</v>
+      </c>
+      <c r="M78" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>77</v>
       </c>
@@ -5329,8 +5810,14 @@
       <c r="K79" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L79" s="5">
+        <v>35</v>
+      </c>
+      <c r="M79" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>78</v>
       </c>
@@ -5364,8 +5851,14 @@
       <c r="K80" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L80" s="5">
+        <v>35</v>
+      </c>
+      <c r="M80" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>79</v>
       </c>
@@ -5399,8 +5892,14 @@
       <c r="K81" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L81" s="5">
+        <v>1</v>
+      </c>
+      <c r="M81" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>80</v>
       </c>
@@ -5434,8 +5933,14 @@
       <c r="K82" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L82" s="5">
+        <v>1</v>
+      </c>
+      <c r="M82" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>81</v>
       </c>
@@ -5469,8 +5974,14 @@
       <c r="K83" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L83" s="5">
+        <v>1</v>
+      </c>
+      <c r="M83" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>82</v>
       </c>
@@ -5480,14 +5991,14 @@
       <c r="C84" s="5">
         <v>0</v>
       </c>
-      <c r="D84" s="5">
-        <v>0</v>
-      </c>
-      <c r="E84" s="5">
-        <v>1</v>
-      </c>
-      <c r="F84" s="5">
-        <v>1</v>
+      <c r="D84" s="7">
+        <v>0</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0</v>
       </c>
       <c r="G84" s="5">
         <v>1</v>
@@ -5504,8 +6015,14 @@
       <c r="K84" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L84" s="5">
+        <v>1</v>
+      </c>
+      <c r="M84" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>83</v>
       </c>
@@ -5515,14 +6032,14 @@
       <c r="C85" s="5">
         <v>0</v>
       </c>
-      <c r="D85" s="5">
-        <v>1</v>
-      </c>
-      <c r="E85" s="5">
-        <v>1</v>
-      </c>
-      <c r="F85" s="5">
-        <v>1</v>
+      <c r="D85" s="7">
+        <v>0</v>
+      </c>
+      <c r="E85" s="7">
+        <v>0</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0</v>
       </c>
       <c r="G85" s="5">
         <v>1</v>
@@ -5539,8 +6056,14 @@
       <c r="K85" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L85" s="5">
+        <v>1</v>
+      </c>
+      <c r="M85" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>84</v>
       </c>
@@ -5574,8 +6097,14 @@
       <c r="K86" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L86" s="5">
+        <v>0</v>
+      </c>
+      <c r="M86" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>85</v>
       </c>
@@ -5609,8 +6138,14 @@
       <c r="K87" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L87" s="5">
+        <v>1</v>
+      </c>
+      <c r="M87" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>86</v>
       </c>
@@ -5644,8 +6179,14 @@
       <c r="K88" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L88" s="5">
+        <v>1</v>
+      </c>
+      <c r="M88" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>87</v>
       </c>
@@ -5679,8 +6220,14 @@
       <c r="K89" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L89" s="5">
+        <v>1</v>
+      </c>
+      <c r="M89" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>88</v>
       </c>
@@ -5714,8 +6261,14 @@
       <c r="K90" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L90" s="5">
+        <v>1</v>
+      </c>
+      <c r="M90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>89</v>
       </c>
@@ -5749,8 +6302,14 @@
       <c r="K91" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L91" s="5">
+        <v>0</v>
+      </c>
+      <c r="M91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>90</v>
       </c>
@@ -5784,8 +6343,14 @@
       <c r="K92" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L92" s="5">
+        <v>0</v>
+      </c>
+      <c r="M92" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>91</v>
       </c>
@@ -5819,8 +6384,14 @@
       <c r="K93" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L93" s="5">
+        <v>0</v>
+      </c>
+      <c r="M93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>92</v>
       </c>
@@ -5854,8 +6425,14 @@
       <c r="K94" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L94" s="5">
+        <v>1</v>
+      </c>
+      <c r="M94" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>93</v>
       </c>
@@ -5889,8 +6466,14 @@
       <c r="K95" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L95" s="5">
+        <v>1</v>
+      </c>
+      <c r="M95" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>96</v>
       </c>
@@ -5924,8 +6507,14 @@
       <c r="K96" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L96" s="5">
+        <v>0</v>
+      </c>
+      <c r="M96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>97</v>
       </c>
@@ -5959,8 +6548,14 @@
       <c r="K97" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L97" s="5">
+        <v>1</v>
+      </c>
+      <c r="M97" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>98</v>
       </c>
@@ -5994,8 +6589,14 @@
       <c r="K98" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L98" s="5">
+        <v>1</v>
+      </c>
+      <c r="M98" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>99</v>
       </c>
@@ -6029,8 +6630,14 @@
       <c r="K99" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L99" s="5">
+        <v>1</v>
+      </c>
+      <c r="M99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>100</v>
       </c>
@@ -6064,8 +6671,14 @@
       <c r="K100" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L100" s="5">
+        <v>0</v>
+      </c>
+      <c r="M100" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>101</v>
       </c>
@@ -6099,8 +6712,14 @@
       <c r="K101" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L101" s="5">
+        <v>1</v>
+      </c>
+      <c r="M101" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>102</v>
       </c>
@@ -6134,8 +6753,14 @@
       <c r="K102" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L102" s="5">
+        <v>1</v>
+      </c>
+      <c r="M102" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>104</v>
       </c>
@@ -6169,8 +6794,14 @@
       <c r="K103" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L103" s="5">
+        <v>0</v>
+      </c>
+      <c r="M103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>105</v>
       </c>
@@ -6204,8 +6835,14 @@
       <c r="K104" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L104" s="5">
+        <v>1</v>
+      </c>
+      <c r="M104" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>106</v>
       </c>
@@ -6239,8 +6876,14 @@
       <c r="K105" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L105" s="5">
+        <v>1</v>
+      </c>
+      <c r="M105" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>107</v>
       </c>
@@ -6274,8 +6917,14 @@
       <c r="K106" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L106" s="5">
+        <v>1</v>
+      </c>
+      <c r="M106" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>109</v>
       </c>
@@ -6309,8 +6958,14 @@
       <c r="K107" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L107" s="5">
+        <v>0</v>
+      </c>
+      <c r="M107" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>110</v>
       </c>
@@ -6344,8 +6999,14 @@
       <c r="K108" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L108" s="5">
+        <v>1</v>
+      </c>
+      <c r="M108" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>112</v>
       </c>
@@ -6379,8 +7040,14 @@
       <c r="K109" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L109" s="5">
+        <v>1</v>
+      </c>
+      <c r="M109" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>113</v>
       </c>
@@ -6414,8 +7081,14 @@
       <c r="K110" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L110" s="5">
+        <v>1</v>
+      </c>
+      <c r="M110" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>119</v>
       </c>
@@ -6449,8 +7122,14 @@
       <c r="K111" s="5">
         <v>11000</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L111" s="5">
+        <v>11000</v>
+      </c>
+      <c r="M111" s="5">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>121</v>
       </c>
@@ -6484,8 +7163,14 @@
       <c r="K112" s="5">
         <v>400</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L112" s="5">
+        <v>400</v>
+      </c>
+      <c r="M112" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>122</v>
       </c>
@@ -6519,8 +7204,14 @@
       <c r="K113" s="5">
         <v>256</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L113" s="5">
+        <v>256</v>
+      </c>
+      <c r="M113" s="5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>123</v>
       </c>
@@ -6554,8 +7245,14 @@
       <c r="K114" s="5">
         <v>52</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L114" s="5">
+        <v>52</v>
+      </c>
+      <c r="M114" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>124</v>
       </c>
@@ -6589,8 +7286,14 @@
       <c r="K115" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L115" s="5">
+        <v>13</v>
+      </c>
+      <c r="M115" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>125</v>
       </c>
@@ -6624,8 +7327,14 @@
       <c r="K116" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L116" s="5">
+        <v>3</v>
+      </c>
+      <c r="M116" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>126</v>
       </c>
@@ -6659,8 +7368,14 @@
       <c r="K117" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L117" s="5">
+        <v>3</v>
+      </c>
+      <c r="M117" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>127</v>
       </c>
@@ -6694,8 +7409,14 @@
       <c r="K118" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L118" s="5">
+        <v>1</v>
+      </c>
+      <c r="M118" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>128</v>
       </c>
@@ -6729,8 +7450,14 @@
       <c r="K119" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L119" s="5">
+        <v>1</v>
+      </c>
+      <c r="M119" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>129</v>
       </c>
@@ -6764,8 +7491,14 @@
       <c r="K120" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L120" s="5">
+        <v>1</v>
+      </c>
+      <c r="M120" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>131</v>
       </c>
@@ -6799,8 +7532,14 @@
       <c r="K121" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L121" s="5">
+        <v>1</v>
+      </c>
+      <c r="M121" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>132</v>
       </c>
@@ -6834,8 +7573,14 @@
       <c r="K122" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L122" s="5">
+        <v>1</v>
+      </c>
+      <c r="M122" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>134</v>
       </c>
@@ -6869,8 +7614,14 @@
       <c r="K123" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L123" s="5">
+        <v>0</v>
+      </c>
+      <c r="M123" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>135</v>
       </c>
@@ -6904,8 +7655,14 @@
       <c r="K124" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L124" s="5">
+        <v>1</v>
+      </c>
+      <c r="M124" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>136</v>
       </c>
@@ -6939,8 +7696,14 @@
       <c r="K125" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L125" s="5">
+        <v>1</v>
+      </c>
+      <c r="M125" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>138</v>
       </c>
@@ -6974,8 +7737,14 @@
       <c r="K126" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L126" s="5">
+        <v>1</v>
+      </c>
+      <c r="M126" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>139</v>
       </c>
@@ -7009,8 +7778,14 @@
       <c r="K127" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L127" s="5">
+        <v>1</v>
+      </c>
+      <c r="M127" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>141</v>
       </c>
@@ -7044,8 +7819,14 @@
       <c r="K128" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L128" s="5">
+        <v>1</v>
+      </c>
+      <c r="M128" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>142</v>
       </c>
@@ -7079,8 +7860,14 @@
       <c r="K129" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L129" s="5">
+        <v>1</v>
+      </c>
+      <c r="M129" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>143</v>
       </c>
@@ -7114,8 +7901,14 @@
       <c r="K130" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L130" s="5">
+        <v>1</v>
+      </c>
+      <c r="M130" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>144</v>
       </c>
@@ -7149,8 +7942,14 @@
       <c r="K131" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L131" s="5">
+        <v>1</v>
+      </c>
+      <c r="M131" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>145</v>
       </c>
@@ -7184,8 +7983,14 @@
       <c r="K132" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L132" s="5">
+        <v>1</v>
+      </c>
+      <c r="M132" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>146</v>
       </c>
@@ -7219,8 +8024,14 @@
       <c r="K133" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L133" s="5">
+        <v>1</v>
+      </c>
+      <c r="M133" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>147</v>
       </c>
@@ -7254,8 +8065,14 @@
       <c r="K134" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L134" s="5">
+        <v>1</v>
+      </c>
+      <c r="M134" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>148</v>
       </c>
@@ -7289,8 +8106,14 @@
       <c r="K135" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L135" s="5">
+        <v>1</v>
+      </c>
+      <c r="M135" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>150</v>
       </c>
@@ -7324,8 +8147,14 @@
       <c r="K136" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L136" s="5">
+        <v>1</v>
+      </c>
+      <c r="M136" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>151</v>
       </c>
@@ -7359,8 +8188,14 @@
       <c r="K137" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L137" s="5">
+        <v>1</v>
+      </c>
+      <c r="M137" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>152</v>
       </c>
@@ -7394,8 +8229,14 @@
       <c r="K138" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L138" s="5">
+        <v>1</v>
+      </c>
+      <c r="M138" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>159</v>
       </c>
@@ -7429,8 +8270,14 @@
       <c r="K139" s="5">
         <v>44000</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L139" s="5">
+        <v>44000</v>
+      </c>
+      <c r="M139" s="5">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>160</v>
       </c>
@@ -7464,8 +8311,14 @@
       <c r="K140" s="5">
         <v>7600</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L140" s="5">
+        <v>7600</v>
+      </c>
+      <c r="M140" s="5">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>161</v>
       </c>
@@ -7499,8 +8352,14 @@
       <c r="K141" s="5">
         <v>1350</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L141" s="5">
+        <v>1350</v>
+      </c>
+      <c r="M141" s="5">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>162</v>
       </c>
@@ -7534,8 +8393,14 @@
       <c r="K142" s="5">
         <v>780</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L142" s="5">
+        <v>780</v>
+      </c>
+      <c r="M142" s="5">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>163</v>
       </c>
@@ -7569,8 +8434,14 @@
       <c r="K143" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L143" s="5">
+        <v>45</v>
+      </c>
+      <c r="M143" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>164</v>
       </c>
@@ -7604,8 +8475,14 @@
       <c r="K144" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L144" s="5">
+        <v>0</v>
+      </c>
+      <c r="M144" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>165</v>
       </c>
@@ -7639,8 +8516,14 @@
       <c r="K145" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L145" s="5">
+        <v>0</v>
+      </c>
+      <c r="M145" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>166</v>
       </c>
@@ -7674,8 +8557,14 @@
       <c r="K146" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L146" s="5">
+        <v>0</v>
+      </c>
+      <c r="M146" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>167</v>
       </c>
@@ -7709,8 +8598,14 @@
       <c r="K147" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L147" s="5">
+        <v>0</v>
+      </c>
+      <c r="M147" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>168</v>
       </c>
@@ -7744,8 +8639,14 @@
       <c r="K148" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L148" s="5">
+        <v>1</v>
+      </c>
+      <c r="M148" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>169</v>
       </c>
@@ -7779,8 +8680,14 @@
       <c r="K149" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L149" s="5">
+        <v>1</v>
+      </c>
+      <c r="M149" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>170</v>
       </c>
@@ -7814,8 +8721,14 @@
       <c r="K150" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L150" s="5">
+        <v>1</v>
+      </c>
+      <c r="M150" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>171</v>
       </c>
@@ -7849,8 +8762,14 @@
       <c r="K151" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L151" s="5">
+        <v>1</v>
+      </c>
+      <c r="M151" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>172</v>
       </c>
@@ -7884,8 +8803,14 @@
       <c r="K152" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L152" s="5">
+        <v>1</v>
+      </c>
+      <c r="M152" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>173</v>
       </c>
@@ -7919,8 +8844,14 @@
       <c r="K153" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L153" s="5">
+        <v>0</v>
+      </c>
+      <c r="M153" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>174</v>
       </c>
@@ -7954,8 +8885,14 @@
       <c r="K154" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L154" s="5">
+        <v>1</v>
+      </c>
+      <c r="M154" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>175</v>
       </c>
@@ -7989,8 +8926,14 @@
       <c r="K155" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L155" s="5">
+        <v>0</v>
+      </c>
+      <c r="M155" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>176</v>
       </c>
@@ -8024,8 +8967,14 @@
       <c r="K156" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L156" s="5">
+        <v>0</v>
+      </c>
+      <c r="M156" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>177</v>
       </c>
@@ -8059,8 +9008,14 @@
       <c r="K157" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L157" s="5">
+        <v>0</v>
+      </c>
+      <c r="M157" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
         <v>178</v>
       </c>
@@ -8094,8 +9049,14 @@
       <c r="K158" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L158" s="5">
+        <v>0</v>
+      </c>
+      <c r="M158" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
         <v>179</v>
       </c>
@@ -8129,8 +9090,14 @@
       <c r="K159" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L159" s="5">
+        <v>0</v>
+      </c>
+      <c r="M159" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
         <v>180</v>
       </c>
@@ -8164,8 +9131,14 @@
       <c r="K160" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L160" s="5">
+        <v>0</v>
+      </c>
+      <c r="M160" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5">
         <v>181</v>
       </c>
@@ -8199,8 +9172,14 @@
       <c r="K161" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L161" s="5">
+        <v>0</v>
+      </c>
+      <c r="M161" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5">
         <v>182</v>
       </c>
@@ -8234,8 +9213,14 @@
       <c r="K162" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L162" s="5">
+        <v>0</v>
+      </c>
+      <c r="M162" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
         <v>183</v>
       </c>
@@ -8269,8 +9254,14 @@
       <c r="K163" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L163" s="5">
+        <v>0</v>
+      </c>
+      <c r="M163" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>184</v>
       </c>
@@ -8304,8 +9295,14 @@
       <c r="K164" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L164" s="5">
+        <v>0</v>
+      </c>
+      <c r="M164" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
         <v>185</v>
       </c>
@@ -8339,8 +9336,14 @@
       <c r="K165" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L165" s="5">
+        <v>0</v>
+      </c>
+      <c r="M165" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
         <v>186</v>
       </c>
@@ -8374,8 +9377,14 @@
       <c r="K166" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L166" s="5">
+        <v>0</v>
+      </c>
+      <c r="M166" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
         <v>187</v>
       </c>
@@ -8409,8 +9418,14 @@
       <c r="K167" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L167" s="5">
+        <v>0</v>
+      </c>
+      <c r="M167" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>188</v>
       </c>
@@ -8444,8 +9459,14 @@
       <c r="K168" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L168" s="5">
+        <v>0</v>
+      </c>
+      <c r="M168" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>189</v>
       </c>
@@ -8479,8 +9500,14 @@
       <c r="K169" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L169" s="5">
+        <v>0</v>
+      </c>
+      <c r="M169" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>190</v>
       </c>
@@ -8514,8 +9541,14 @@
       <c r="K170" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L170" s="5">
+        <v>0</v>
+      </c>
+      <c r="M170" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>191</v>
       </c>
@@ -8549,8 +9582,14 @@
       <c r="K171" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L171" s="5">
+        <v>25</v>
+      </c>
+      <c r="M171" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
         <v>192</v>
       </c>
@@ -8584,8 +9623,14 @@
       <c r="K172" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L172" s="5">
+        <v>1</v>
+      </c>
+      <c r="M172" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
         <v>193</v>
       </c>
@@ -8619,8 +9664,14 @@
       <c r="K173" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L173" s="5">
+        <v>1</v>
+      </c>
+      <c r="M173" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5">
         <v>194</v>
       </c>
@@ -8654,8 +9705,14 @@
       <c r="K174" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L174" s="5">
+        <v>1</v>
+      </c>
+      <c r="M174" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5">
         <v>195</v>
       </c>
@@ -8689,8 +9746,14 @@
       <c r="K175" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L175" s="5">
+        <v>1</v>
+      </c>
+      <c r="M175" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5">
         <v>196</v>
       </c>
@@ -8724,8 +9787,14 @@
       <c r="K176" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L176" s="5">
+        <v>1</v>
+      </c>
+      <c r="M176" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
         <v>197</v>
       </c>
@@ -8759,8 +9828,14 @@
       <c r="K177" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L177" s="5">
+        <v>0</v>
+      </c>
+      <c r="M177" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>200</v>
       </c>
@@ -8794,8 +9869,14 @@
       <c r="K178" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L178" s="5">
+        <v>0</v>
+      </c>
+      <c r="M178" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5">
         <v>201</v>
       </c>
@@ -8827,10 +9908,16 @@
         <v>0</v>
       </c>
       <c r="K179" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L179" s="5">
+        <v>0</v>
+      </c>
+      <c r="M179" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5">
         <v>202</v>
       </c>
@@ -8862,10 +9949,16 @@
         <v>0</v>
       </c>
       <c r="K180" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L180" s="5">
+        <v>0</v>
+      </c>
+      <c r="M180" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5">
         <v>203</v>
       </c>
@@ -8894,13 +9987,19 @@
         <v>0</v>
       </c>
       <c r="J181" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K181" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L181" s="5">
+        <v>1</v>
+      </c>
+      <c r="M181" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5">
         <v>204</v>
       </c>
@@ -8926,16 +10025,22 @@
         <v>0</v>
       </c>
       <c r="I182" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K182" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L182" s="5">
+        <v>1</v>
+      </c>
+      <c r="M182" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5">
         <v>205</v>
       </c>
@@ -8958,10 +10063,10 @@
         <v>0</v>
       </c>
       <c r="H183" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" s="5">
         <v>1</v>
@@ -8969,8 +10074,14 @@
       <c r="K183" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L183" s="5">
+        <v>1</v>
+      </c>
+      <c r="M183" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5">
         <v>206</v>
       </c>
@@ -8990,10 +10101,10 @@
         <v>0</v>
       </c>
       <c r="G184" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" s="5">
         <v>1</v>
@@ -9004,8 +10115,14 @@
       <c r="K184" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L184" s="5">
+        <v>1</v>
+      </c>
+      <c r="M184" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>207</v>
       </c>
@@ -9025,10 +10142,10 @@
         <v>0</v>
       </c>
       <c r="G185" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" s="5">
         <v>1</v>
@@ -9039,8 +10156,14 @@
       <c r="K185" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L185" s="5">
+        <v>1</v>
+      </c>
+      <c r="M185" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>208</v>
       </c>
@@ -9057,10 +10180,10 @@
         <v>0</v>
       </c>
       <c r="F186" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G186" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186" s="5">
         <v>1</v>
@@ -9074,8 +10197,14 @@
       <c r="K186" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L186" s="5">
+        <v>1</v>
+      </c>
+      <c r="M186" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>209</v>
       </c>
@@ -9092,10 +10221,10 @@
         <v>0</v>
       </c>
       <c r="F187" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187" s="5">
         <v>1</v>
@@ -9109,8 +10238,14 @@
       <c r="K187" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L187" s="5">
+        <v>1</v>
+      </c>
+      <c r="M187" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>210</v>
       </c>
@@ -9127,10 +10262,10 @@
         <v>0</v>
       </c>
       <c r="F188" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G188" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188" s="5">
         <v>1</v>
@@ -9144,8 +10279,14 @@
       <c r="K188" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L188" s="5">
+        <v>1</v>
+      </c>
+      <c r="M188" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5">
         <v>211</v>
       </c>
@@ -9162,10 +10303,10 @@
         <v>0</v>
       </c>
       <c r="F189" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189" s="5">
         <v>1</v>
@@ -9179,8 +10320,14 @@
       <c r="K189" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L189" s="5">
+        <v>1</v>
+      </c>
+      <c r="M189" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5">
         <v>212</v>
       </c>
@@ -9194,13 +10341,13 @@
         <v>0</v>
       </c>
       <c r="E190" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190" s="5">
         <v>1</v>
@@ -9214,8 +10361,14 @@
       <c r="K190" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L190" s="5">
+        <v>1</v>
+      </c>
+      <c r="M190" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5">
         <v>213</v>
       </c>
@@ -9226,10 +10379,10 @@
         <v>0</v>
       </c>
       <c r="D191" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" s="5">
         <v>1</v>
@@ -9249,8 +10402,14 @@
       <c r="K191" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L191" s="5">
+        <v>1</v>
+      </c>
+      <c r="M191" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5">
         <v>214</v>
       </c>
@@ -9284,8 +10443,14 @@
       <c r="K192" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L192" s="5">
+        <v>1</v>
+      </c>
+      <c r="M192" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
         <v>215</v>
       </c>
@@ -9319,8 +10484,14 @@
       <c r="K193" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L193" s="5">
+        <v>0</v>
+      </c>
+      <c r="M193" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5">
         <v>216</v>
       </c>
@@ -9354,8 +10525,14 @@
       <c r="K194" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L194" s="5">
+        <v>0</v>
+      </c>
+      <c r="M194" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5">
         <v>217</v>
       </c>
@@ -9389,8 +10566,14 @@
       <c r="K195" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L195" s="5">
+        <v>0</v>
+      </c>
+      <c r="M195" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5">
         <v>218</v>
       </c>
@@ -9424,8 +10607,14 @@
       <c r="K196" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L196" s="5">
+        <v>1</v>
+      </c>
+      <c r="M196" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5">
         <v>219</v>
       </c>
@@ -9459,8 +10648,14 @@
       <c r="K197" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L197" s="5">
+        <v>1</v>
+      </c>
+      <c r="M197" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5">
         <v>220</v>
       </c>
@@ -9494,8 +10689,14 @@
       <c r="K198" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L198" s="5">
+        <v>1</v>
+      </c>
+      <c r="M198" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5">
         <v>221</v>
       </c>
@@ -9529,8 +10730,14 @@
       <c r="K199" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L199" s="5">
+        <v>0</v>
+      </c>
+      <c r="M199" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5">
         <v>222</v>
       </c>
@@ -9564,8 +10771,14 @@
       <c r="K200" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L200" s="5">
+        <v>0</v>
+      </c>
+      <c r="M200" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5">
         <v>223</v>
       </c>
@@ -9599,8 +10812,14 @@
       <c r="K201" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L201" s="5">
+        <v>1</v>
+      </c>
+      <c r="M201" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5">
         <v>224</v>
       </c>
@@ -9634,8 +10853,14 @@
       <c r="K202" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L202" s="5">
+        <v>1</v>
+      </c>
+      <c r="M202" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5">
         <v>225</v>
       </c>
@@ -9669,8 +10894,14 @@
       <c r="K203" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L203" s="5">
+        <v>0</v>
+      </c>
+      <c r="M203" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5">
         <v>226</v>
       </c>
@@ -9704,8 +10935,14 @@
       <c r="K204" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L204" s="5">
+        <v>1</v>
+      </c>
+      <c r="M204" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5">
         <v>227</v>
       </c>
@@ -9739,8 +10976,14 @@
       <c r="K205" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L205" s="5">
+        <v>1</v>
+      </c>
+      <c r="M205" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5">
         <v>228</v>
       </c>
@@ -9774,8 +11017,14 @@
       <c r="K206" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L206" s="5">
+        <v>1</v>
+      </c>
+      <c r="M206" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5">
         <v>229</v>
       </c>
@@ -9809,8 +11058,14 @@
       <c r="K207" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L207" s="5">
+        <v>1</v>
+      </c>
+      <c r="M207" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5">
         <v>230</v>
       </c>
@@ -9844,8 +11099,14 @@
       <c r="K208" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L208" s="5">
+        <v>1</v>
+      </c>
+      <c r="M208" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5">
         <v>231</v>
       </c>
@@ -9879,8 +11140,14 @@
       <c r="K209" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L209" s="5">
+        <v>1</v>
+      </c>
+      <c r="M209" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5">
         <v>232</v>
       </c>
@@ -9914,8 +11181,14 @@
       <c r="K210" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L210" s="5">
+        <v>0</v>
+      </c>
+      <c r="M210" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5">
         <v>233</v>
       </c>
@@ -9949,8 +11222,14 @@
       <c r="K211" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L211" s="5">
+        <v>0</v>
+      </c>
+      <c r="M211" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5">
         <v>234</v>
       </c>
@@ -9984,8 +11263,14 @@
       <c r="K212" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L212" s="5">
+        <v>1</v>
+      </c>
+      <c r="M212" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5">
         <v>235</v>
       </c>
@@ -10019,8 +11304,14 @@
       <c r="K213" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L213" s="5">
+        <v>1</v>
+      </c>
+      <c r="M213" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5">
         <v>236</v>
       </c>
@@ -10054,8 +11345,14 @@
       <c r="K214" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L214" s="5">
+        <v>1</v>
+      </c>
+      <c r="M214" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5">
         <v>238</v>
       </c>
@@ -10089,8 +11386,14 @@
       <c r="K215" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L215" s="5">
+        <v>0</v>
+      </c>
+      <c r="M215" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5">
         <v>239</v>
       </c>
@@ -10100,8 +11403,8 @@
       <c r="C216" s="5">
         <v>0</v>
       </c>
-      <c r="D216" s="5">
-        <v>1</v>
+      <c r="D216" s="7">
+        <v>0</v>
       </c>
       <c r="E216" s="5">
         <v>1</v>
@@ -10124,8 +11427,14 @@
       <c r="K216" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L216" s="5">
+        <v>1</v>
+      </c>
+      <c r="M216" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5">
         <v>240</v>
       </c>
@@ -10159,8 +11468,14 @@
       <c r="K217" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L217" s="5">
+        <v>1</v>
+      </c>
+      <c r="M217" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5">
         <v>241</v>
       </c>
@@ -10194,8 +11509,14 @@
       <c r="K218" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L218" s="5">
+        <v>0</v>
+      </c>
+      <c r="M218" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5">
         <v>242</v>
       </c>
@@ -10229,8 +11550,14 @@
       <c r="K219" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L219" s="5">
+        <v>0</v>
+      </c>
+      <c r="M219" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5">
         <v>243</v>
       </c>
@@ -10264,8 +11591,14 @@
       <c r="K220" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L220" s="5">
+        <v>1</v>
+      </c>
+      <c r="M220" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5">
         <v>244</v>
       </c>
@@ -10299,8 +11632,14 @@
       <c r="K221" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L221" s="5">
+        <v>1</v>
+      </c>
+      <c r="M221" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="5">
         <v>247</v>
       </c>
@@ -10334,8 +11673,14 @@
       <c r="K222" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L222" s="5">
+        <v>0</v>
+      </c>
+      <c r="M222" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5">
         <v>248</v>
       </c>
@@ -10369,8 +11714,14 @@
       <c r="K223" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L223" s="5">
+        <v>0</v>
+      </c>
+      <c r="M223" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5">
         <v>249</v>
       </c>
@@ -10404,8 +11755,14 @@
       <c r="K224" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L224" s="5">
+        <v>1</v>
+      </c>
+      <c r="M224" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="5">
         <v>250</v>
       </c>
@@ -10439,8 +11796,14 @@
       <c r="K225" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L225" s="5">
+        <v>1</v>
+      </c>
+      <c r="M225" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5">
         <v>251</v>
       </c>
@@ -10474,8 +11837,14 @@
       <c r="K226" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L226" s="5">
+        <v>1</v>
+      </c>
+      <c r="M226" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5">
         <v>257</v>
       </c>
@@ -10509,8 +11878,14 @@
       <c r="K227" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L227" s="5">
+        <v>1</v>
+      </c>
+      <c r="M227" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5">
         <v>258</v>
       </c>
@@ -10544,8 +11919,14 @@
       <c r="K228" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L228" s="5">
+        <v>1</v>
+      </c>
+      <c r="M228" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5">
         <v>259</v>
       </c>
@@ -10579,8 +11960,14 @@
       <c r="K229" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L229" s="5">
+        <v>1</v>
+      </c>
+      <c r="M229" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5">
         <v>262</v>
       </c>
@@ -10614,8 +12001,14 @@
       <c r="K230" s="5">
         <v>800</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L230" s="5">
+        <v>800</v>
+      </c>
+      <c r="M230" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5">
         <v>263</v>
       </c>
@@ -10649,8 +12042,14 @@
       <c r="K231" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L231" s="5">
+        <v>50</v>
+      </c>
+      <c r="M231" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5">
         <v>264</v>
       </c>
@@ -10684,8 +12083,14 @@
       <c r="K232" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L232" s="5">
+        <v>1</v>
+      </c>
+      <c r="M232" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5">
         <v>265</v>
       </c>
@@ -10719,8 +12124,14 @@
       <c r="K233" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L233" s="5">
+        <v>1</v>
+      </c>
+      <c r="M233" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5">
         <v>267</v>
       </c>
@@ -10754,8 +12165,14 @@
       <c r="K234" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L234" s="5">
+        <v>1</v>
+      </c>
+      <c r="M234" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5">
         <v>268</v>
       </c>
@@ -10789,8 +12206,14 @@
       <c r="K235" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L235" s="5">
+        <v>0</v>
+      </c>
+      <c r="M235" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5">
         <v>269</v>
       </c>
@@ -10824,8 +12247,14 @@
       <c r="K236" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L236" s="5">
+        <v>0</v>
+      </c>
+      <c r="M236" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5">
         <v>270</v>
       </c>
@@ -10835,7 +12264,7 @@
       <c r="C237" s="5">
         <v>0</v>
       </c>
-      <c r="D237" s="5">
+      <c r="D237" s="7">
         <v>0</v>
       </c>
       <c r="E237" s="5">
@@ -10859,8 +12288,14 @@
       <c r="K237" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L237" s="5">
+        <v>1</v>
+      </c>
+      <c r="M237" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5">
         <v>271</v>
       </c>
@@ -10870,7 +12305,7 @@
       <c r="C238" s="5">
         <v>0</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="7">
         <v>0</v>
       </c>
       <c r="E238" s="5">
@@ -10894,8 +12329,14 @@
       <c r="K238" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L238" s="5">
+        <v>1</v>
+      </c>
+      <c r="M238" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5">
         <v>272</v>
       </c>
@@ -10909,7 +12350,7 @@
         <v>1</v>
       </c>
       <c r="E239" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239" s="5">
         <v>0</v>
@@ -10929,8 +12370,14 @@
       <c r="K239" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L239" s="5">
+        <v>0</v>
+      </c>
+      <c r="M239" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5">
         <v>273</v>
       </c>
@@ -10964,8 +12411,14 @@
       <c r="K240" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L240" s="5">
+        <v>1</v>
+      </c>
+      <c r="M240" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5">
         <v>274</v>
       </c>
@@ -10999,8 +12452,14 @@
       <c r="K241" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L241" s="5">
+        <v>0</v>
+      </c>
+      <c r="M241" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5">
         <v>275</v>
       </c>
@@ -11034,8 +12493,14 @@
       <c r="K242" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L242" s="5">
+        <v>0</v>
+      </c>
+      <c r="M242" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5">
         <v>276</v>
       </c>
@@ -11069,8 +12534,14 @@
       <c r="K243" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L243" s="5">
+        <v>0</v>
+      </c>
+      <c r="M243" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5">
         <v>277</v>
       </c>
@@ -11104,8 +12575,14 @@
       <c r="K244" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L244" s="5">
+        <v>0</v>
+      </c>
+      <c r="M244" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5">
         <v>279</v>
       </c>
@@ -11139,8 +12616,14 @@
       <c r="K245" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L245" s="5">
+        <v>1</v>
+      </c>
+      <c r="M245" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5">
         <v>280</v>
       </c>
@@ -11174,8 +12657,14 @@
       <c r="K246" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L246" s="5">
+        <v>1</v>
+      </c>
+      <c r="M246" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5">
         <v>281</v>
       </c>
@@ -11209,8 +12698,14 @@
       <c r="K247" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L247" s="5">
+        <v>1</v>
+      </c>
+      <c r="M247" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5">
         <v>282</v>
       </c>
@@ -11244,8 +12739,14 @@
       <c r="K248" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L248" s="5">
+        <v>1</v>
+      </c>
+      <c r="M248" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5">
         <v>283</v>
       </c>
@@ -11279,8 +12780,14 @@
       <c r="K249" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L249" s="5">
+        <v>1</v>
+      </c>
+      <c r="M249" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5">
         <v>284</v>
       </c>
@@ -11314,8 +12821,14 @@
       <c r="K250" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L250" s="5">
+        <v>1</v>
+      </c>
+      <c r="M250" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5">
         <v>285</v>
       </c>
@@ -11349,8 +12862,14 @@
       <c r="K251" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L251" s="5">
+        <v>0</v>
+      </c>
+      <c r="M251" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5">
         <v>286</v>
       </c>
@@ -11384,8 +12903,14 @@
       <c r="K252" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L252" s="5">
+        <v>0</v>
+      </c>
+      <c r="M252" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5">
         <v>287</v>
       </c>
@@ -11419,8 +12944,14 @@
       <c r="K253" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L253" s="5">
+        <v>1</v>
+      </c>
+      <c r="M253" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5">
         <v>288</v>
       </c>
@@ -11454,8 +12985,14 @@
       <c r="K254" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L254" s="5">
+        <v>1</v>
+      </c>
+      <c r="M254" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5">
         <v>289</v>
       </c>
@@ -11489,8 +13026,14 @@
       <c r="K255" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L255" s="5">
+        <v>1</v>
+      </c>
+      <c r="M255" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5">
         <v>290</v>
       </c>
@@ -11524,8 +13067,14 @@
       <c r="K256" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L256" s="5">
+        <v>1</v>
+      </c>
+      <c r="M256" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5">
         <v>291</v>
       </c>
@@ -11559,8 +13108,14 @@
       <c r="K257" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L257" s="5">
+        <v>1</v>
+      </c>
+      <c r="M257" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5">
         <v>298</v>
       </c>
@@ -11594,8 +13149,14 @@
       <c r="K258" s="5">
         <v>190</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L258" s="5">
+        <v>190</v>
+      </c>
+      <c r="M258" s="5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5">
         <v>309</v>
       </c>
@@ -11629,8 +13190,14 @@
       <c r="K259" s="5">
         <v>64000</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L259" s="5">
+        <v>64000</v>
+      </c>
+      <c r="M259" s="5">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="5">
         <v>310</v>
       </c>
@@ -11664,8 +13231,14 @@
       <c r="K260" s="5">
         <v>17000</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L260" s="5">
+        <v>17000</v>
+      </c>
+      <c r="M260" s="5">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5">
         <v>311</v>
       </c>
@@ -11699,8 +13272,14 @@
       <c r="K261" s="5">
         <v>1500</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L261" s="5">
+        <v>1500</v>
+      </c>
+      <c r="M261" s="5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5">
         <v>312</v>
       </c>
@@ -11734,8 +13313,14 @@
       <c r="K262" s="5">
         <v>350</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L262" s="5">
+        <v>350</v>
+      </c>
+      <c r="M262" s="5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5">
         <v>313</v>
       </c>
@@ -11769,8 +13354,14 @@
       <c r="K263" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L263" s="5">
+        <v>1</v>
+      </c>
+      <c r="M263" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5">
         <v>314</v>
       </c>
@@ -11804,8 +13395,14 @@
       <c r="K264" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L264" s="5">
+        <v>1</v>
+      </c>
+      <c r="M264" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5">
         <v>316</v>
       </c>
@@ -11839,8 +13436,14 @@
       <c r="K265" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L265" s="5">
+        <v>0</v>
+      </c>
+      <c r="M265" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5">
         <v>317</v>
       </c>
@@ -11874,8 +13477,14 @@
       <c r="K266" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L266" s="5">
+        <v>0</v>
+      </c>
+      <c r="M266" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5">
         <v>318</v>
       </c>
@@ -11909,8 +13518,14 @@
       <c r="K267" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L267" s="5">
+        <v>0</v>
+      </c>
+      <c r="M267" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5">
         <v>319</v>
       </c>
@@ -11944,8 +13559,14 @@
       <c r="K268" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L268" s="5">
+        <v>0</v>
+      </c>
+      <c r="M268" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5">
         <v>320</v>
       </c>
@@ -11979,8 +13600,14 @@
       <c r="K269" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L269" s="5">
+        <v>0</v>
+      </c>
+      <c r="M269" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5">
         <v>321</v>
       </c>
@@ -12014,8 +13641,14 @@
       <c r="K270" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L270" s="5">
+        <v>0</v>
+      </c>
+      <c r="M270" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5">
         <v>322</v>
       </c>
@@ -12049,8 +13682,14 @@
       <c r="K271" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L271" s="5">
+        <v>1</v>
+      </c>
+      <c r="M271" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="5">
         <v>324</v>
       </c>
@@ -12084,8 +13723,14 @@
       <c r="K272" s="5">
         <v>103000</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L272" s="5">
+        <v>103000</v>
+      </c>
+      <c r="M272" s="5">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5">
         <v>325</v>
       </c>
@@ -12119,8 +13764,14 @@
       <c r="K273" s="5">
         <v>770</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L273" s="5">
+        <v>770</v>
+      </c>
+      <c r="M273" s="5">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5">
         <v>326</v>
       </c>
@@ -12154,8 +13805,14 @@
       <c r="K274" s="5">
         <v>250</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L274" s="5">
+        <v>250</v>
+      </c>
+      <c r="M274" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>327</v>
       </c>
@@ -12189,8 +13846,14 @@
       <c r="K275" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L275" s="5">
+        <v>40</v>
+      </c>
+      <c r="M275" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>328</v>
       </c>
@@ -12224,8 +13887,14 @@
       <c r="K276" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L276" s="5">
+        <v>0</v>
+      </c>
+      <c r="M276" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>329</v>
       </c>
@@ -12259,8 +13928,14 @@
       <c r="K277" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L277" s="5">
+        <v>0</v>
+      </c>
+      <c r="M277" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>330</v>
       </c>
@@ -12294,8 +13969,14 @@
       <c r="K278" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L278" s="5">
+        <v>0</v>
+      </c>
+      <c r="M278" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>331</v>
       </c>
@@ -12329,8 +14010,14 @@
       <c r="K279" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L279" s="5">
+        <v>0</v>
+      </c>
+      <c r="M279" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>332</v>
       </c>
@@ -12364,8 +14051,14 @@
       <c r="K280" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L280" s="5">
+        <v>0</v>
+      </c>
+      <c r="M280" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>333</v>
       </c>
@@ -12399,8 +14092,14 @@
       <c r="K281" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L281" s="5">
+        <v>0</v>
+      </c>
+      <c r="M281" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>334</v>
       </c>
@@ -12434,8 +14133,14 @@
       <c r="K282" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L282" s="5">
+        <v>1</v>
+      </c>
+      <c r="M282" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>335</v>
       </c>
@@ -12469,8 +14174,14 @@
       <c r="K283" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L283" s="5">
+        <v>1</v>
+      </c>
+      <c r="M283" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>336</v>
       </c>
@@ -12504,8 +14215,14 @@
       <c r="K284" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L284" s="5">
+        <v>1</v>
+      </c>
+      <c r="M284" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>337</v>
       </c>
@@ -12539,8 +14256,14 @@
       <c r="K285" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L285" s="5">
+        <v>1</v>
+      </c>
+      <c r="M285" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>338</v>
       </c>
@@ -12574,8 +14297,14 @@
       <c r="K286" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L286" s="5">
+        <v>1</v>
+      </c>
+      <c r="M286" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>339</v>
       </c>
@@ -12609,8 +14338,14 @@
       <c r="K287" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L287" s="5">
+        <v>1</v>
+      </c>
+      <c r="M287" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>340</v>
       </c>
@@ -12644,8 +14379,14 @@
       <c r="K288" s="5">
         <v>8400</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L288" s="5">
+        <v>8400</v>
+      </c>
+      <c r="M288" s="5">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5">
         <v>341</v>
       </c>
@@ -12679,8 +14420,14 @@
       <c r="K289" s="5">
         <v>170</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L289" s="5">
+        <v>170</v>
+      </c>
+      <c r="M289" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="5">
         <v>342</v>
       </c>
@@ -12714,8 +14461,14 @@
       <c r="K290" s="5">
         <v>70</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L290" s="5">
+        <v>70</v>
+      </c>
+      <c r="M290" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="5">
         <v>343</v>
       </c>
@@ -12749,8 +14502,14 @@
       <c r="K291" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L291" s="5">
+        <v>1</v>
+      </c>
+      <c r="M291" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="5">
         <v>345</v>
       </c>
@@ -12784,8 +14543,14 @@
       <c r="K292" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L292" s="5">
+        <v>0</v>
+      </c>
+      <c r="M292" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="5">
         <v>346</v>
       </c>
@@ -12819,8 +14584,14 @@
       <c r="K293" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L293" s="5">
+        <v>1</v>
+      </c>
+      <c r="M293" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="5">
         <v>348</v>
       </c>
@@ -12854,8 +14625,14 @@
       <c r="K294" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L294" s="5">
+        <v>0</v>
+      </c>
+      <c r="M294" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5">
         <v>349</v>
       </c>
@@ -12889,8 +14666,14 @@
       <c r="K295" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L295" s="5">
+        <v>0</v>
+      </c>
+      <c r="M295" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="5">
         <v>350</v>
       </c>
@@ -12924,8 +14707,14 @@
       <c r="K296" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L296" s="5">
+        <v>0</v>
+      </c>
+      <c r="M296" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5">
         <v>351</v>
       </c>
@@ -12959,8 +14748,14 @@
       <c r="K297" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L297" s="5">
+        <v>1</v>
+      </c>
+      <c r="M297" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="5">
         <v>352</v>
       </c>
@@ -12994,8 +14789,14 @@
       <c r="K298" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L298" s="5">
+        <v>1</v>
+      </c>
+      <c r="M298" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="5">
         <v>353</v>
       </c>
@@ -13029,8 +14830,14 @@
       <c r="K299" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L299" s="5">
+        <v>1</v>
+      </c>
+      <c r="M299" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="5">
         <v>355</v>
       </c>
@@ -13064,8 +14871,14 @@
       <c r="K300" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L300" s="5">
+        <v>0</v>
+      </c>
+      <c r="M300" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="5">
         <v>356</v>
       </c>
@@ -13099,8 +14912,14 @@
       <c r="K301" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L301" s="5">
+        <v>0</v>
+      </c>
+      <c r="M301" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="5">
         <v>357</v>
       </c>
@@ -13134,8 +14953,14 @@
       <c r="K302" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L302" s="5">
+        <v>1</v>
+      </c>
+      <c r="M302" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5">
         <v>358</v>
       </c>
@@ -13169,8 +14994,14 @@
       <c r="K303" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L303" s="5">
+        <v>1</v>
+      </c>
+      <c r="M303" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="5">
         <v>359</v>
       </c>
@@ -13204,8 +15035,14 @@
       <c r="K304" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L304" s="5">
+        <v>1</v>
+      </c>
+      <c r="M304" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="5">
         <v>360</v>
       </c>
@@ -13239,8 +15076,14 @@
       <c r="K305" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L305" s="5">
+        <v>1</v>
+      </c>
+      <c r="M305" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="5">
         <v>361</v>
       </c>
@@ -13274,8 +15117,14 @@
       <c r="K306" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L306" s="5">
+        <v>1</v>
+      </c>
+      <c r="M306" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="5">
         <v>362</v>
       </c>
@@ -13309,8 +15158,14 @@
       <c r="K307" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L307" s="5">
+        <v>1</v>
+      </c>
+      <c r="M307" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="5">
         <v>363</v>
       </c>
@@ -13344,8 +15199,14 @@
       <c r="K308" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L308" s="5">
+        <v>0</v>
+      </c>
+      <c r="M308" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5">
         <v>364</v>
       </c>
@@ -13379,8 +15240,14 @@
       <c r="K309" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L309" s="5">
+        <v>0</v>
+      </c>
+      <c r="M309" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="5">
         <v>365</v>
       </c>
@@ -13414,8 +15281,14 @@
       <c r="K310" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L310" s="5">
+        <v>0</v>
+      </c>
+      <c r="M310" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="5">
         <v>366</v>
       </c>
@@ -13449,8 +15322,14 @@
       <c r="K311" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L311" s="5">
+        <v>0</v>
+      </c>
+      <c r="M311" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="5">
         <v>372</v>
       </c>
@@ -13484,8 +15363,14 @@
       <c r="K312" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L312" s="5">
+        <v>1</v>
+      </c>
+      <c r="M312" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="5">
         <v>373</v>
       </c>
@@ -13519,8 +15404,14 @@
       <c r="K313" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L313" s="5">
+        <v>1</v>
+      </c>
+      <c r="M313" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="5">
         <v>374</v>
       </c>
@@ -13554,8 +15445,14 @@
       <c r="K314" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L314" s="5">
+        <v>1</v>
+      </c>
+      <c r="M314" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="5">
         <v>376</v>
       </c>
@@ -13589,8 +15486,14 @@
       <c r="K315" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L315" s="5">
+        <v>1</v>
+      </c>
+      <c r="M315" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="5">
         <v>382</v>
       </c>
@@ -13624,8 +15527,14 @@
       <c r="K316" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L316" s="5">
+        <v>0</v>
+      </c>
+      <c r="M316" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="5">
         <v>383</v>
       </c>
@@ -13659,8 +15568,14 @@
       <c r="K317" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L317" s="5">
+        <v>0</v>
+      </c>
+      <c r="M317" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5">
         <v>384</v>
       </c>
@@ -13694,8 +15609,14 @@
       <c r="K318" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="319" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L318" s="5">
+        <v>100</v>
+      </c>
+      <c r="M318" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5">
         <v>385</v>
       </c>
@@ -13729,8 +15650,14 @@
       <c r="K319" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="320" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L319" s="5">
+        <v>50</v>
+      </c>
+      <c r="M319" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5">
         <v>386</v>
       </c>
@@ -13764,8 +15691,14 @@
       <c r="K320" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L320" s="5">
+        <v>1</v>
+      </c>
+      <c r="M320" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5">
         <v>387</v>
       </c>
@@ -13799,8 +15732,14 @@
       <c r="K321" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L321" s="5">
+        <v>1</v>
+      </c>
+      <c r="M321" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5">
         <v>388</v>
       </c>
@@ -13834,8 +15773,14 @@
       <c r="K322" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L322" s="5">
+        <v>0</v>
+      </c>
+      <c r="M322" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="5">
         <v>389</v>
       </c>
@@ -13869,8 +15814,14 @@
       <c r="K323" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L323" s="5">
+        <v>1</v>
+      </c>
+      <c r="M323" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="5">
         <v>390</v>
       </c>
@@ -13904,8 +15855,14 @@
       <c r="K324" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L324" s="5">
+        <v>1</v>
+      </c>
+      <c r="M324" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5">
         <v>391</v>
       </c>
@@ -13939,8 +15896,14 @@
       <c r="K325" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L325" s="5">
+        <v>1</v>
+      </c>
+      <c r="M325" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5">
         <v>398</v>
       </c>
@@ -13974,8 +15937,14 @@
       <c r="K326" s="5">
         <v>11400</v>
       </c>
-    </row>
-    <row r="327" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L326" s="5">
+        <v>11400</v>
+      </c>
+      <c r="M326" s="5">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="5">
         <v>399</v>
       </c>
@@ -14009,8 +15978,14 @@
       <c r="K327" s="5">
         <v>4100</v>
       </c>
-    </row>
-    <row r="328" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L327" s="5">
+        <v>4100</v>
+      </c>
+      <c r="M327" s="5">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="5">
         <v>400</v>
       </c>
@@ -14044,8 +16019,14 @@
       <c r="K328" s="5">
         <v>1600</v>
       </c>
-    </row>
-    <row r="329" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L328" s="5">
+        <v>1600</v>
+      </c>
+      <c r="M328" s="5">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="5">
         <v>401</v>
       </c>
@@ -14079,8 +16060,14 @@
       <c r="K329" s="5">
         <v>500</v>
       </c>
-    </row>
-    <row r="330" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L329" s="5">
+        <v>500</v>
+      </c>
+      <c r="M329" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5">
         <v>402</v>
       </c>
@@ -14114,8 +16101,14 @@
       <c r="K330" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L330" s="5">
+        <v>0</v>
+      </c>
+      <c r="M330" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5">
         <v>403</v>
       </c>
@@ -14149,8 +16142,14 @@
       <c r="K331" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L331" s="5">
+        <v>0</v>
+      </c>
+      <c r="M331" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5">
         <v>404</v>
       </c>
@@ -14184,8 +16183,14 @@
       <c r="K332" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L332" s="5">
+        <v>1</v>
+      </c>
+      <c r="M332" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5">
         <v>405</v>
       </c>
@@ -14219,8 +16224,14 @@
       <c r="K333" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L333" s="5">
+        <v>1</v>
+      </c>
+      <c r="M333" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5">
         <v>406</v>
       </c>
@@ -14254,8 +16265,14 @@
       <c r="K334" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L334" s="5">
+        <v>1</v>
+      </c>
+      <c r="M334" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5">
         <v>410</v>
       </c>
@@ -14289,8 +16306,14 @@
       <c r="K335" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L335" s="5">
+        <v>0</v>
+      </c>
+      <c r="M335" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="5">
         <v>411</v>
       </c>
@@ -14324,8 +16347,14 @@
       <c r="K336" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L336" s="5">
+        <v>0</v>
+      </c>
+      <c r="M336" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5">
         <v>412</v>
       </c>
@@ -14359,8 +16388,14 @@
       <c r="K337" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L337" s="5">
+        <v>1</v>
+      </c>
+      <c r="M337" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5">
         <v>416</v>
       </c>
@@ -14394,8 +16429,14 @@
       <c r="K338" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L338" s="5">
+        <v>0</v>
+      </c>
+      <c r="M338" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5">
         <v>417</v>
       </c>
@@ -14429,8 +16470,14 @@
       <c r="K339" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L339" s="5">
+        <v>1</v>
+      </c>
+      <c r="M339" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5">
         <v>418</v>
       </c>
@@ -14464,8 +16511,14 @@
       <c r="K340" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L340" s="5">
+        <v>0</v>
+      </c>
+      <c r="M340" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5">
         <v>419</v>
       </c>
@@ -14499,8 +16552,14 @@
       <c r="K341" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L341" s="5">
+        <v>1</v>
+      </c>
+      <c r="M341" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5">
         <v>420</v>
       </c>
@@ -14534,8 +16593,14 @@
       <c r="K342" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L342" s="5">
+        <v>1</v>
+      </c>
+      <c r="M342" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="5">
         <v>421</v>
       </c>
@@ -14569,8 +16634,14 @@
       <c r="K343" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L343" s="5">
+        <v>1</v>
+      </c>
+      <c r="M343" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5">
         <v>422</v>
       </c>
@@ -14604,8 +16675,14 @@
       <c r="K344" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L344" s="5">
+        <v>1</v>
+      </c>
+      <c r="M344" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="5">
         <v>423</v>
       </c>
@@ -14639,8 +16716,14 @@
       <c r="K345" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L345" s="5">
+        <v>1</v>
+      </c>
+      <c r="M345" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="5">
         <v>424</v>
       </c>
@@ -14674,8 +16757,14 @@
       <c r="K346" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L346" s="5">
+        <v>1</v>
+      </c>
+      <c r="M346" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5">
         <v>425</v>
       </c>
@@ -14709,8 +16798,14 @@
       <c r="K347" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L347" s="5">
+        <v>1</v>
+      </c>
+      <c r="M347" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5">
         <v>426</v>
       </c>
@@ -14744,8 +16839,14 @@
       <c r="K348" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L348" s="5">
+        <v>1</v>
+      </c>
+      <c r="M348" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="5">
         <v>427</v>
       </c>
@@ -14779,8 +16880,14 @@
       <c r="K349" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L349" s="5">
+        <v>0</v>
+      </c>
+      <c r="M349" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5">
         <v>428</v>
       </c>
@@ -14814,8 +16921,14 @@
       <c r="K350" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L350" s="5">
+        <v>1</v>
+      </c>
+      <c r="M350" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="5">
         <v>429</v>
       </c>
@@ -14849,8 +16962,14 @@
       <c r="K351" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L351" s="5">
+        <v>1</v>
+      </c>
+      <c r="M351" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="5">
         <v>430</v>
       </c>
@@ -14884,8 +17003,14 @@
       <c r="K352" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L352" s="5">
+        <v>1</v>
+      </c>
+      <c r="M352" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5">
         <v>431</v>
       </c>
@@ -14919,8 +17044,14 @@
       <c r="K353" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L353" s="5">
+        <v>1</v>
+      </c>
+      <c r="M353" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5">
         <v>432</v>
       </c>
@@ -14954,8 +17085,14 @@
       <c r="K354" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L354" s="5">
+        <v>1</v>
+      </c>
+      <c r="M354" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5">
         <v>433</v>
       </c>
@@ -14989,8 +17126,14 @@
       <c r="K355" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L355" s="5">
+        <v>1</v>
+      </c>
+      <c r="M355" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5">
         <v>443</v>
       </c>
@@ -15024,8 +17167,14 @@
       <c r="K356" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L356" s="5">
+        <v>0</v>
+      </c>
+      <c r="M356" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="5">
         <v>444</v>
       </c>
@@ -15059,8 +17208,14 @@
       <c r="K357" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L357" s="5">
+        <v>0</v>
+      </c>
+      <c r="M357" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5">
         <v>446</v>
       </c>
@@ -15094,8 +17249,14 @@
       <c r="K358" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L358" s="5">
+        <v>0</v>
+      </c>
+      <c r="M358" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5">
         <v>447</v>
       </c>
@@ -15129,8 +17290,14 @@
       <c r="K359" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L359" s="5">
+        <v>0</v>
+      </c>
+      <c r="M359" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="5">
         <v>448</v>
       </c>
@@ -15164,8 +17331,14 @@
       <c r="K360" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L360" s="5">
+        <v>0</v>
+      </c>
+      <c r="M360" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5">
         <v>451</v>
       </c>
@@ -15199,8 +17372,14 @@
       <c r="K361" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L361" s="5">
+        <v>0</v>
+      </c>
+      <c r="M361" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="5">
         <v>452</v>
       </c>
@@ -15234,8 +17413,14 @@
       <c r="K362" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L362" s="5">
+        <v>0</v>
+      </c>
+      <c r="M362" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5">
         <v>453</v>
       </c>
@@ -15269,8 +17454,14 @@
       <c r="K363" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L363" s="5">
+        <v>0</v>
+      </c>
+      <c r="M363" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="5">
         <v>454</v>
       </c>
@@ -15304,8 +17495,14 @@
       <c r="K364" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L364" s="5">
+        <v>0</v>
+      </c>
+      <c r="M364" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5">
         <v>458</v>
       </c>
@@ -15339,43 +17536,55 @@
       <c r="K365" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L365" s="5">
+        <v>0</v>
+      </c>
+      <c r="M365" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5">
         <v>459</v>
       </c>
       <c r="B366" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C366" s="5">
-        <v>1103</v>
-      </c>
-      <c r="D366" s="5">
+      <c r="C366" s="7">
         <v>17881</v>
       </c>
-      <c r="E366" s="5">
-        <v>17881</v>
-      </c>
-      <c r="F366" s="5">
-        <v>17881</v>
-      </c>
-      <c r="G366" s="5">
-        <v>17881</v>
-      </c>
-      <c r="H366" s="5">
-        <v>17881</v>
-      </c>
-      <c r="I366" s="5">
-        <v>17881</v>
-      </c>
-      <c r="J366" s="5">
-        <v>17881</v>
-      </c>
-      <c r="K366" s="5">
-        <v>17881</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D366" s="7">
+        <v>18013</v>
+      </c>
+      <c r="E366" s="7">
+        <v>18013</v>
+      </c>
+      <c r="F366" s="7">
+        <v>18013</v>
+      </c>
+      <c r="G366" s="7">
+        <v>18013</v>
+      </c>
+      <c r="H366" s="7">
+        <v>18013</v>
+      </c>
+      <c r="I366" s="7">
+        <v>18013</v>
+      </c>
+      <c r="J366" s="7">
+        <v>18013</v>
+      </c>
+      <c r="K366" s="7">
+        <v>18013</v>
+      </c>
+      <c r="L366" s="7">
+        <v>18013</v>
+      </c>
+      <c r="M366" s="7">
+        <v>18013</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="5">
         <v>460</v>
       </c>
@@ -15409,8 +17618,14 @@
       <c r="K367" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L367" s="5">
+        <v>0</v>
+      </c>
+      <c r="M367" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="5">
         <v>461</v>
       </c>
@@ -15444,8 +17659,14 @@
       <c r="K368" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L368" s="5">
+        <v>0</v>
+      </c>
+      <c r="M368" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5">
         <v>462</v>
       </c>
@@ -15479,8 +17700,14 @@
       <c r="K369" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L369" s="5">
+        <v>0</v>
+      </c>
+      <c r="M369" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5">
         <v>463</v>
       </c>
@@ -15514,8 +17741,14 @@
       <c r="K370" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L370" s="5">
+        <v>0</v>
+      </c>
+      <c r="M370" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="5">
         <v>464</v>
       </c>
@@ -15549,8 +17782,14 @@
       <c r="K371" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L371" s="5">
+        <v>0</v>
+      </c>
+      <c r="M371" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="5">
         <v>465</v>
       </c>
@@ -15584,8 +17823,14 @@
       <c r="K372" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L372" s="5">
+        <v>0</v>
+      </c>
+      <c r="M372" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5">
         <v>466</v>
       </c>
@@ -15619,8 +17864,14 @@
       <c r="K373" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L373" s="5">
+        <v>0</v>
+      </c>
+      <c r="M373" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5">
         <v>467</v>
       </c>
@@ -15654,8 +17905,14 @@
       <c r="K374" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L374" s="5">
+        <v>0</v>
+      </c>
+      <c r="M374" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="5">
         <v>468</v>
       </c>
@@ -15689,8 +17946,14 @@
       <c r="K375" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L375" s="5">
+        <v>0</v>
+      </c>
+      <c r="M375" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5">
         <v>469</v>
       </c>
@@ -15724,8 +17987,14 @@
       <c r="K376" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L376" s="5">
+        <v>0</v>
+      </c>
+      <c r="M376" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5">
         <v>471</v>
       </c>
@@ -15759,8 +18028,14 @@
       <c r="K377" s="5">
         <v>110</v>
       </c>
-    </row>
-    <row r="378" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L377" s="5">
+        <v>110</v>
+      </c>
+      <c r="M377" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="5">
         <v>472</v>
       </c>
@@ -15794,8 +18069,14 @@
       <c r="K378" s="5">
         <v>269167</v>
       </c>
-    </row>
-    <row r="379" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L378" s="5">
+        <v>269167</v>
+      </c>
+      <c r="M378" s="5">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5">
         <v>473</v>
       </c>
@@ -15829,8 +18110,14 @@
       <c r="K379" s="5">
         <v>269167</v>
       </c>
-    </row>
-    <row r="380" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L379" s="5">
+        <v>269167</v>
+      </c>
+      <c r="M379" s="5">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="5">
         <v>474</v>
       </c>
@@ -15864,8 +18151,14 @@
       <c r="K380" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L380" s="5">
+        <v>0</v>
+      </c>
+      <c r="M380" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5">
         <v>475</v>
       </c>
@@ -15899,8 +18192,14 @@
       <c r="K381" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L381" s="5">
+        <v>0</v>
+      </c>
+      <c r="M381" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="5">
         <v>476</v>
       </c>
@@ -15934,8 +18233,14 @@
       <c r="K382" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L382" s="5">
+        <v>0</v>
+      </c>
+      <c r="M382" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5">
         <v>477</v>
       </c>
@@ -15969,8 +18274,14 @@
       <c r="K383" s="5">
         <v>269167</v>
       </c>
-    </row>
-    <row r="384" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L383" s="5">
+        <v>269167</v>
+      </c>
+      <c r="M383" s="5">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="5">
         <v>478</v>
       </c>
@@ -16004,8 +18315,14 @@
       <c r="K384" s="5">
         <v>269167</v>
       </c>
-    </row>
-    <row r="385" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L384" s="5">
+        <v>269167</v>
+      </c>
+      <c r="M384" s="5">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>479</v>
       </c>
@@ -16039,8 +18356,14 @@
       <c r="K385" s="5">
         <v>269167</v>
       </c>
-    </row>
-    <row r="386" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L385" s="5">
+        <v>269167</v>
+      </c>
+      <c r="M385" s="5">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="5">
         <v>480</v>
       </c>
@@ -16074,8 +18397,14 @@
       <c r="K386" s="5">
         <v>1103</v>
       </c>
-    </row>
-    <row r="387" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L386" s="5">
+        <v>1103</v>
+      </c>
+      <c r="M386" s="5">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="5">
         <v>482</v>
       </c>
@@ -16109,8 +18438,14 @@
       <c r="K387" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L387" s="5">
+        <v>0</v>
+      </c>
+      <c r="M387" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="5">
         <v>483</v>
       </c>
@@ -16144,8 +18479,14 @@
       <c r="K388" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L388" s="5">
+        <v>0</v>
+      </c>
+      <c r="M388" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="5">
         <v>484</v>
       </c>
@@ -16179,8 +18520,14 @@
       <c r="K389" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L389" s="5">
+        <v>0</v>
+      </c>
+      <c r="M389" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="5">
         <v>485</v>
       </c>
@@ -16214,8 +18561,14 @@
       <c r="K390" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L390" s="5">
+        <v>0</v>
+      </c>
+      <c r="M390" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="5">
         <v>486</v>
       </c>
@@ -16249,8 +18602,14 @@
       <c r="K391" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L391" s="5">
+        <v>0</v>
+      </c>
+      <c r="M391" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="5">
         <v>487</v>
       </c>
@@ -16284,8 +18643,14 @@
       <c r="K392" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L392" s="5">
+        <v>0</v>
+      </c>
+      <c r="M392" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="5">
         <v>488</v>
       </c>
@@ -16319,8 +18684,14 @@
       <c r="K393" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L393" s="5">
+        <v>0</v>
+      </c>
+      <c r="M393" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="5">
         <v>489</v>
       </c>
@@ -16354,8 +18725,14 @@
       <c r="K394" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L394" s="5">
+        <v>0</v>
+      </c>
+      <c r="M394" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
         <v>490</v>
       </c>
@@ -16389,8 +18766,14 @@
       <c r="K395" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L395" s="5">
+        <v>0</v>
+      </c>
+      <c r="M395" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
         <v>491</v>
       </c>
@@ -16424,8 +18807,14 @@
       <c r="K396" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L396" s="5">
+        <v>0</v>
+      </c>
+      <c r="M396" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
         <v>492</v>
       </c>
@@ -16459,8 +18848,14 @@
       <c r="K397" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L397" s="5">
+        <v>0</v>
+      </c>
+      <c r="M397" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
         <v>494</v>
       </c>
@@ -16494,8 +18889,14 @@
       <c r="K398" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="399" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L398" s="5">
+        <v>6</v>
+      </c>
+      <c r="M398" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
         <v>500</v>
       </c>
@@ -16529,8 +18930,14 @@
       <c r="K399" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L399" s="5">
+        <v>0</v>
+      </c>
+      <c r="M399" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
         <v>501</v>
       </c>
@@ -16564,8 +18971,14 @@
       <c r="K400" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L400" s="5">
+        <v>0</v>
+      </c>
+      <c r="M400" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>503</v>
       </c>
@@ -16599,8 +19012,14 @@
       <c r="K401" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L401" s="5">
+        <v>0</v>
+      </c>
+      <c r="M401" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>504</v>
       </c>
@@ -16634,8 +19053,14 @@
       <c r="K402" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L402" s="5">
+        <v>0</v>
+      </c>
+      <c r="M402" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>505</v>
       </c>
@@ -16669,8 +19094,14 @@
       <c r="K403" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L403" s="5">
+        <v>0</v>
+      </c>
+      <c r="M403" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>506</v>
       </c>
@@ -16702,6 +19133,12 @@
         <v>0</v>
       </c>
       <c r="K404" s="5">
+        <v>0</v>
+      </c>
+      <c r="L404" s="5">
+        <v>0</v>
+      </c>
+      <c r="M404" s="5">
         <v>0</v>
       </c>
     </row>
